--- a/data/lichess_puzzles_distribution.xlsx
+++ b/data/lichess_puzzles_distribution.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lichess_puzzles_distribution" sheetId="1" r:id="rId1"/>
     <sheet name="2022-07" sheetId="2" r:id="rId2"/>
+    <sheet name="2023-09" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Rating</t>
   </si>
@@ -35,6 +36,9 @@
   </si>
   <si>
     <t>Attempts per puzzle (right axis)</t>
+  </si>
+  <si>
+    <t>deviation</t>
   </si>
 </sst>
 </file>
@@ -1211,6 +1215,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="192984496"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2015,6 +2020,1630 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="468794160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69729886223238491"/>
+          <c:y val="9.2111436890060881E-3"/>
+          <c:w val="0.23687830004855948"/>
+          <c:h val="8.7822628728785962E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzles Distribution by Rating (09/2023)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6712160294240194E-2"/>
+          <c:y val="1.8211380248498277E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-09'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of puzzles (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-09'!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-09'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>18669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>219095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>217895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>182341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134257</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102568</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54840</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47249</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40553</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3FD-4F48-BA16-C235B0A09D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="480464032"/>
+        <c:axId val="480462392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-09'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating deviation per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-09'!$F$2:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>96.578552680914797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.270379979912903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.041167379429993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.424845697688497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.254768261298295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.097601083381704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.432433743868401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.447907822420603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.611957217946497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.9602176541717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.872238070243498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.621906084264594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.283278643383198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.196416963931796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.207636521563202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.614990594545304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.972273485128099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.878896444878094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.812713544197294</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.758794165821698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.787238086882695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.387144420131193</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.8401447649685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102.05654328902899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104.782667265379</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.063397129186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118.016528925619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137.111111111111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3FD-4F48-BA16-C235B0A09D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="192990400"/>
+        <c:axId val="192984496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480464032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480462392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480462392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480464032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192984496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192990400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="192990400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192984496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66456910069865327"/>
+          <c:y val="6.705434304545491E-3"/>
+          <c:w val="0.27633298090521341"/>
+          <c:h val="8.78054836125233E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Attempts Distribution by Rating </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1725153208307963E-2"/>
+          <c:y val="1.56128024980484E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-09'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-09'!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-09'!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>6544045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18734979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33644890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35938612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82467883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134832137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190604164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311755705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398678223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>558241904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>624142310</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>617943425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510369911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>377009824</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308407388</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>323465196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>244266559</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>154731629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113444628</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67318996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34401402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24087864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18036675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17712967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1107493</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>475443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11889</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FDE-4746-86D5-774D9327533C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="133189912"/>
+        <c:axId val="133188600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-09'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-09'!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-09'!$E$2:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>350.530023032835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392.01077586206799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356.15118346953398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434.93418855137298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.874419751304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621.06577213977096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840.79191516391995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1291.19726068246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026.64841549832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2596.2324620965401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2848.7291357630202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2813.1173605262502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2342.27454048968</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992.3890817809399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1834.8080934278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1773.9575630275101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1554.43203599292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1152.50325122712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>874.959531687452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>656.33527025973001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>503.01065929727503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>439.23894967177199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381.73665051112101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>436.78561388799801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>497.30264930399602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>568.71172248803805</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>670.77685950413195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FDE-4746-86D5-774D9327533C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468796456"/>
+        <c:axId val="468794160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133189912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133188600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133188600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133189912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468794160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468796456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="468796456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="468794160"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2196,6 +3825,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -2693,6 +4402,998 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3237,6 +5938,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>315912</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>103821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3795,7 +6565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -4335,8 +7105,645 @@
         <v>2978987020</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D3:D27" si="0">C27/B27</f>
+        <f t="shared" ref="D27" si="0">C27/B27</f>
         <v>1025.6732822135634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="B2">
+        <v>18669</v>
+      </c>
+      <c r="C2">
+        <v>6544045</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1803025</v>
+      </c>
+      <c r="E2" s="1">
+        <v>350.530023032835</v>
+      </c>
+      <c r="F2" s="1">
+        <v>96.578552680914797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>47792</v>
+      </c>
+      <c r="C3">
+        <v>18734979</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4505370</v>
+      </c>
+      <c r="E3" s="1">
+        <v>392.01077586206799</v>
+      </c>
+      <c r="F3" s="1">
+        <v>94.270379979912903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>600</v>
+      </c>
+      <c r="B4">
+        <v>94468</v>
+      </c>
+      <c r="C4">
+        <v>33644890</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8789413</v>
+      </c>
+      <c r="E4" s="1">
+        <v>356.15118346953398</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93.041167379429993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>700</v>
+      </c>
+      <c r="B5">
+        <v>82630</v>
+      </c>
+      <c r="C5">
+        <v>35938612</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7306545</v>
+      </c>
+      <c r="E5" s="1">
+        <v>434.93418855137298</v>
+      </c>
+      <c r="F5" s="1">
+        <v>88.424845697688497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6">
+        <v>166308</v>
+      </c>
+      <c r="C6">
+        <v>82467883</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14843782</v>
+      </c>
+      <c r="E6" s="1">
+        <v>495.874419751304</v>
+      </c>
+      <c r="F6" s="1">
+        <v>89.254768261298295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>900</v>
+      </c>
+      <c r="B7">
+        <v>217098</v>
+      </c>
+      <c r="C7">
+        <v>134832137</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19125813</v>
+      </c>
+      <c r="E7" s="1">
+        <v>621.06577213977096</v>
+      </c>
+      <c r="F7" s="1">
+        <v>88.097601083381704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>226696</v>
+      </c>
+      <c r="C8">
+        <v>190604164</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20500671</v>
+      </c>
+      <c r="E8" s="1">
+        <v>840.79191516391995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90.432433743868401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1100</v>
+      </c>
+      <c r="B9">
+        <v>241447</v>
+      </c>
+      <c r="C9">
+        <v>311755705</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21355482</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1291.19726068246</v>
+      </c>
+      <c r="F9" s="1">
+        <v>88.447907822420603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1200</v>
+      </c>
+      <c r="B10">
+        <v>196718</v>
+      </c>
+      <c r="C10">
+        <v>398678223</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17628285</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2026.64841549832</v>
+      </c>
+      <c r="F10" s="1">
+        <v>89.611957217946497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1300</v>
+      </c>
+      <c r="B11">
+        <v>215020</v>
+      </c>
+      <c r="C11">
+        <v>558241904</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18913206</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2596.2324620965401</v>
+      </c>
+      <c r="F11" s="1">
+        <v>87.9602176541717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1400</v>
+      </c>
+      <c r="B12">
+        <v>219095</v>
+      </c>
+      <c r="C12">
+        <v>624142310</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19252368</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2848.7291357630202</v>
+      </c>
+      <c r="F12" s="1">
+        <v>87.872238070243498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1500</v>
+      </c>
+      <c r="B13">
+        <v>219665</v>
+      </c>
+      <c r="C13">
+        <v>617943425</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19247466</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2813.1173605262502</v>
+      </c>
+      <c r="F13" s="1">
+        <v>87.621906084264594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1600</v>
+      </c>
+      <c r="B14">
+        <v>217895</v>
+      </c>
+      <c r="C14">
+        <v>510369911</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19018590</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2342.27454048968</v>
+      </c>
+      <c r="F14" s="1">
+        <v>87.283278643383198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1700</v>
+      </c>
+      <c r="B15">
+        <v>189225</v>
+      </c>
+      <c r="C15">
+        <v>377009824</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16499742</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1992.3890817809399</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.196416963931796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1800</v>
+      </c>
+      <c r="B16">
+        <v>168087</v>
+      </c>
+      <c r="C16">
+        <v>308407388</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14490383</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1834.8080934278</v>
+      </c>
+      <c r="F16" s="1">
+        <v>86.207636521563202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1900</v>
+      </c>
+      <c r="B17">
+        <v>182341</v>
+      </c>
+      <c r="C17">
+        <v>323465196</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15246441</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1773.9575630275101</v>
+      </c>
+      <c r="F17" s="1">
+        <v>83.614990594545304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>157142</v>
+      </c>
+      <c r="C18">
+        <v>244266559</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13352713</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1554.43203599292</v>
+      </c>
+      <c r="F18" s="1">
+        <v>84.972273485128099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2100</v>
+      </c>
+      <c r="B19">
+        <v>134257</v>
+      </c>
+      <c r="C19">
+        <v>154731629</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11529843</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1152.50325122712</v>
+      </c>
+      <c r="F19" s="1">
+        <v>85.878896444878094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2200</v>
+      </c>
+      <c r="B20">
+        <v>129657</v>
+      </c>
+      <c r="C20">
+        <v>113444628</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11126219</v>
+      </c>
+      <c r="E20" s="1">
+        <v>874.959531687452</v>
+      </c>
+      <c r="F20" s="1">
+        <v>85.812713544197294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2300</v>
+      </c>
+      <c r="B21">
+        <v>102568</v>
+      </c>
+      <c r="C21">
+        <v>67318996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9001244</v>
+      </c>
+      <c r="E21" s="1">
+        <v>656.33527025973001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>87.758794165821698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2400</v>
+      </c>
+      <c r="B22">
+        <v>68391</v>
+      </c>
+      <c r="C22">
+        <v>34401402</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6072248</v>
+      </c>
+      <c r="E22" s="1">
+        <v>503.01065929727503</v>
+      </c>
+      <c r="F22" s="1">
+        <v>88.787238086882695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2500</v>
+      </c>
+      <c r="B23">
+        <v>54840</v>
+      </c>
+      <c r="C23">
+        <v>24087864</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5011671</v>
+      </c>
+      <c r="E23" s="1">
+        <v>439.23894967177199</v>
+      </c>
+      <c r="F23" s="1">
+        <v>91.387144420131193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2600</v>
+      </c>
+      <c r="B24">
+        <v>47249</v>
+      </c>
+      <c r="C24">
+        <v>18036675</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4528351</v>
+      </c>
+      <c r="E24" s="1">
+        <v>381.73665051112101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>95.8401447649685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2700</v>
+      </c>
+      <c r="B25">
+        <v>40553</v>
+      </c>
+      <c r="C25">
+        <v>17712967</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4138699</v>
+      </c>
+      <c r="E25" s="1">
+        <v>436.78561388799801</v>
+      </c>
+      <c r="F25" s="1">
+        <v>102.05654328902899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2800</v>
+      </c>
+      <c r="B26">
+        <v>2227</v>
+      </c>
+      <c r="C26">
+        <v>1107493</v>
+      </c>
+      <c r="D26" s="1">
+        <v>233351</v>
+      </c>
+      <c r="E26" s="1">
+        <v>497.30264930399602</v>
+      </c>
+      <c r="F26" s="1">
+        <v>104.782667265379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2900</v>
+      </c>
+      <c r="B27">
+        <v>836</v>
+      </c>
+      <c r="C27">
+        <v>475443</v>
+      </c>
+      <c r="D27" s="1">
+        <v>92013</v>
+      </c>
+      <c r="E27" s="1">
+        <v>568.71172248803805</v>
+      </c>
+      <c r="F27" s="1">
+        <v>110.063397129186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3000</v>
+      </c>
+      <c r="B28">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>81164</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14280</v>
+      </c>
+      <c r="E28" s="1">
+        <v>670.77685950413195</v>
+      </c>
+      <c r="F28" s="1">
+        <v>118.016528925619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3100</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>11889</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1321</v>
+      </c>
+      <c r="F29" s="1">
+        <v>137.111111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3200</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>447</v>
+      </c>
+      <c r="D30" s="1">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1">
+        <v>447</v>
+      </c>
+      <c r="F30" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B2:B30)</f>
+        <v>3441005</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C2:C30)</f>
+        <v>5208457752</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="0">C31/B31</f>
+        <v>1513.6443428591356</v>
       </c>
     </row>
   </sheetData>

--- a/data/lichess_puzzles_distribution.xlsx
+++ b/data/lichess_puzzles_distribution.xlsx
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="lichess_puzzles_distribution" sheetId="1" r:id="rId1"/>
     <sheet name="2022-07" sheetId="2" r:id="rId2"/>
-    <sheet name="2023-09" sheetId="3" r:id="rId3"/>
+    <sheet name="2023-04" sheetId="4" r:id="rId3"/>
+    <sheet name="2023-09" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>Rating</t>
   </si>
@@ -2163,6 +2164,1608 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzles Distribution by Rating (04/2023)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6712160294240194E-2"/>
+          <c:y val="1.8211380248498277E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of puzzles (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>7857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>211001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165370</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52847</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-120C-468A-95EF-B0212F0E99FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="480464032"/>
+        <c:axId val="480462392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating deviation per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$F$2:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>92.761486572483093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.393116317644598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.295912641892102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.4602388141641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.006094327889201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.084079119012202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.965582400426399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.240967542976904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.739346119904098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.597993587252205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.288594621776298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.869104885758802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.637511473936996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.741126940896905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.304668319525902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.627640705012993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.443369499493798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.309385686370206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.470145021469605</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.917685819440507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.157262653488999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.625560580543805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.750968258914597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.372467950496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104.65306122448899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>111.17647058823501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-120C-468A-95EF-B0212F0E99FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="192990400"/>
+        <c:axId val="192984496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480464032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480462392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480462392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480464032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192984496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192990400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="192990400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192984496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66456910069865327"/>
+          <c:y val="6.705434304545491E-3"/>
+          <c:w val="0.27633298090521341"/>
+          <c:h val="8.78054836125233E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Attempts Distribution by Rating </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1725153208307963E-2"/>
+          <c:y val="1.56128024980484E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2095182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13281791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33071899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31143336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75707704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118414999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162466703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254719511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>344963539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>477079503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>548697588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>551410185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>452610080</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343223684</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285212074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>284060407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>211633914</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137091575</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100899577</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59012003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30152551</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21104976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15439039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14942599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2413-4527-89FD-4E67035561E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="133189912"/>
+        <c:axId val="133188600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$E$2:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>266.66437571592201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393.40632682681201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356.85505416720599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427.44079055723302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.58278401466299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598.726850306909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>773.29745925672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1181.23118267103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1801.34796321728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2317.7200884181798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2627.7990852709399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2613.3060269856501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2209.88067105443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1862.0874556482599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1724.69053637298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1673.9073712868001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1437.81830410826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1046.43666798974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>817.46396338005297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>615.26594934993102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>451.52067984426401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>399.35996366870398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343.65487690869401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>414.63452466840499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>470.11224489795899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>329.35294117646998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>816.66666666666595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2413-4527-89FD-4E67035561E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468796456"/>
+        <c:axId val="468794160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133189912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133188600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133188600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133189912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468794160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468796456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="468796456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="468794160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69729886223238491"/>
+          <c:y val="9.2111436890060881E-3"/>
+          <c:w val="0.23687830004855948"/>
+          <c:h val="8.7822628728785962E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Lichess Puzzles Distribution by Rating (09/2023)</a:t>
             </a:r>
           </a:p>
@@ -2892,7 +4495,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3905,6 +5508,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -5394,6 +7077,998 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5955,6 +8630,75 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>315912</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>103821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7117,10 +9861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7157,6 +9901,623 @@
         <v>400</v>
       </c>
       <c r="B2">
+        <v>7857</v>
+      </c>
+      <c r="C2">
+        <v>2095182</v>
+      </c>
+      <c r="D2" s="1">
+        <v>728827</v>
+      </c>
+      <c r="E2" s="1">
+        <v>266.66437571592201</v>
+      </c>
+      <c r="F2" s="1">
+        <v>92.761486572483093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>33761</v>
+      </c>
+      <c r="C3">
+        <v>13281791</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3153045</v>
+      </c>
+      <c r="E3" s="1">
+        <v>393.40632682681201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>93.393116317644598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>600</v>
+      </c>
+      <c r="B4">
+        <v>92676</v>
+      </c>
+      <c r="C4">
+        <v>33071899</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8646292</v>
+      </c>
+      <c r="E4" s="1">
+        <v>356.85505416720599</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93.295912641892102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>700</v>
+      </c>
+      <c r="B5">
+        <v>72860</v>
+      </c>
+      <c r="C5">
+        <v>31143336</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6445213</v>
+      </c>
+      <c r="E5" s="1">
+        <v>427.44079055723302</v>
+      </c>
+      <c r="F5" s="1">
+        <v>88.4602388141641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6">
+        <v>152765</v>
+      </c>
+      <c r="C6">
+        <v>75707704</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13597016</v>
+      </c>
+      <c r="E6" s="1">
+        <v>495.58278401466299</v>
+      </c>
+      <c r="F6" s="1">
+        <v>89.006094327889201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>900</v>
+      </c>
+      <c r="B7">
+        <v>197778</v>
+      </c>
+      <c r="C7">
+        <v>118414999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17421093</v>
+      </c>
+      <c r="E7" s="1">
+        <v>598.726850306909</v>
+      </c>
+      <c r="F7" s="1">
+        <v>88.084079119012202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>210096</v>
+      </c>
+      <c r="C8">
+        <v>162466703</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19111505</v>
+      </c>
+      <c r="E8" s="1">
+        <v>773.29745925672</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90.965582400426399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1100</v>
+      </c>
+      <c r="B9">
+        <v>215639</v>
+      </c>
+      <c r="C9">
+        <v>254719511</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19243833</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1181.23118267103</v>
+      </c>
+      <c r="F9" s="1">
+        <v>89.240967542976904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1200</v>
+      </c>
+      <c r="B10">
+        <v>191503</v>
+      </c>
+      <c r="C10">
+        <v>344963539</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17185354</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1801.34796321728</v>
+      </c>
+      <c r="F10" s="1">
+        <v>89.739346119904098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1300</v>
+      </c>
+      <c r="B11">
+        <v>205840</v>
+      </c>
+      <c r="C11">
+        <v>477079503</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18237011</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2317.7200884181798</v>
+      </c>
+      <c r="F11" s="1">
+        <v>88.597993587252205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1400</v>
+      </c>
+      <c r="B12">
+        <v>208805</v>
+      </c>
+      <c r="C12">
+        <v>548697588</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18435100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2627.7990852709399</v>
+      </c>
+      <c r="F12" s="1">
+        <v>88.288594621776298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1500</v>
+      </c>
+      <c r="B13">
+        <v>211001</v>
+      </c>
+      <c r="C13">
+        <v>551410185</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18540469</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2613.3060269856501</v>
+      </c>
+      <c r="F13" s="1">
+        <v>87.869104885758802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1600</v>
+      </c>
+      <c r="B14">
+        <v>204812</v>
+      </c>
+      <c r="C14">
+        <v>452610080</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18154026</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2209.88067105443</v>
+      </c>
+      <c r="F14" s="1">
+        <v>88.637511473936996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1700</v>
+      </c>
+      <c r="B15">
+        <v>184322</v>
+      </c>
+      <c r="C15">
+        <v>343223684</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15988298</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1862.0874556482599</v>
+      </c>
+      <c r="F15" s="1">
+        <v>86.741126940896905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1800</v>
+      </c>
+      <c r="B16">
+        <v>165370</v>
+      </c>
+      <c r="C16">
+        <v>285212074</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14437573</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1724.69053637298</v>
+      </c>
+      <c r="F16" s="1">
+        <v>87.304668319525902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1900</v>
+      </c>
+      <c r="B17">
+        <v>169699</v>
+      </c>
+      <c r="C17">
+        <v>284060407</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14361226</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1673.9073712868001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>84.627640705012993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>147191</v>
+      </c>
+      <c r="C18">
+        <v>211633914</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12576495</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1437.81830410826</v>
+      </c>
+      <c r="F18" s="1">
+        <v>85.443369499493798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2100</v>
+      </c>
+      <c r="B19">
+        <v>131008</v>
+      </c>
+      <c r="C19">
+        <v>137091575</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11307220</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1046.43666798974</v>
+      </c>
+      <c r="F19" s="1">
+        <v>86.309385686370206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2200</v>
+      </c>
+      <c r="B20">
+        <v>123430</v>
+      </c>
+      <c r="C20">
+        <v>100899577</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10796440</v>
+      </c>
+      <c r="E20" s="1">
+        <v>817.46396338005297</v>
+      </c>
+      <c r="F20" s="1">
+        <v>87.470145021469605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2300</v>
+      </c>
+      <c r="B21">
+        <v>95913</v>
+      </c>
+      <c r="C21">
+        <v>59012003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8432449</v>
+      </c>
+      <c r="E21" s="1">
+        <v>615.26594934993102</v>
+      </c>
+      <c r="F21" s="1">
+        <v>87.917685819440507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2400</v>
+      </c>
+      <c r="B22">
+        <v>66780</v>
+      </c>
+      <c r="C22">
+        <v>30152551</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5953922</v>
+      </c>
+      <c r="E22" s="1">
+        <v>451.52067984426401</v>
+      </c>
+      <c r="F22" s="1">
+        <v>89.157262653488999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2500</v>
+      </c>
+      <c r="B23">
+        <v>52847</v>
+      </c>
+      <c r="C23">
+        <v>21104976</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4842136</v>
+      </c>
+      <c r="E23" s="1">
+        <v>399.35996366870398</v>
+      </c>
+      <c r="F23" s="1">
+        <v>91.625560580543805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2600</v>
+      </c>
+      <c r="B24">
+        <v>44926</v>
+      </c>
+      <c r="C24">
+        <v>15439039</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4301708</v>
+      </c>
+      <c r="E24" s="1">
+        <v>343.65487690869401</v>
+      </c>
+      <c r="F24" s="1">
+        <v>95.750968258914597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2700</v>
+      </c>
+      <c r="B25">
+        <v>36038</v>
+      </c>
+      <c r="C25">
+        <v>14942599</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3653261</v>
+      </c>
+      <c r="E25" s="1">
+        <v>414.63452466840499</v>
+      </c>
+      <c r="F25" s="1">
+        <v>101.372467950496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2800</v>
+      </c>
+      <c r="B26">
+        <v>196</v>
+      </c>
+      <c r="C26">
+        <v>92142</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20512</v>
+      </c>
+      <c r="E26" s="1">
+        <v>470.11224489795899</v>
+      </c>
+      <c r="F26" s="1">
+        <v>104.65306122448899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2900</v>
+      </c>
+      <c r="B27">
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <v>27995</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9450</v>
+      </c>
+      <c r="E27" s="1">
+        <v>329.35294117646998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>111.17647058823501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3000</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>4900</v>
+      </c>
+      <c r="D28" s="1">
+        <v>742</v>
+      </c>
+      <c r="E28" s="1">
+        <v>816.66666666666595</v>
+      </c>
+      <c r="F28" s="1">
+        <v>123.666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3100</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>868</v>
+      </c>
+      <c r="D29" s="1">
+        <v>149</v>
+      </c>
+      <c r="E29" s="1">
+        <v>868</v>
+      </c>
+      <c r="F29" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM(B2:B29)</f>
+        <v>3223205</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C2:C29)</f>
+        <v>4568560324</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30" si="0">C30/B30</f>
+        <v>1417.3967600571482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="B2">
         <v>18669</v>
       </c>
       <c r="C2">

--- a/data/lichess_puzzles_distribution.xlsx
+++ b/data/lichess_puzzles_distribution.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Rating</t>
   </si>
@@ -40,6 +40,114 @@
   </si>
   <si>
     <t>deviation</t>
+  </si>
+  <si>
+    <t>Count: 3441005 (+25044)</t>
+  </si>
+  <si>
+    <t>Rating: 5270105141 (1531.5598614358305 avg)</t>
+  </si>
+  <si>
+    <t>Attempts: 5208457752 (1513.6443428591356 avg)</t>
+  </si>
+  <si>
+    <t>Highest rated: 8U4Gp 3222 (x1) 447 156</t>
+  </si>
+  <si>
+    <t>Lowest rated: 00VC1 400 (x3245) 471 118</t>
+  </si>
+  <si>
+    <t>Most played: 1t7Gr 944 1007592</t>
+  </si>
+  <si>
+    <t>Least played: 01UT5 1585 1</t>
+  </si>
+  <si>
+    <t>10 Highest rated:</t>
+  </si>
+  <si>
+    <t>8U4Gp / rating: 3222 / attempts: 447 / deviation: 156</t>
+  </si>
+  <si>
+    <t>UDpmy / rating: 3199 / attempts: 1142 / deviation: 151</t>
+  </si>
+  <si>
+    <t>sgHm8 / rating: 3158 / attempts: 921 / deviation: 151</t>
+  </si>
+  <si>
+    <t>zhl5i / rating: 3158 / attempts: 6025 / deviation: 142</t>
+  </si>
+  <si>
+    <t>rLxlN / rating: 3137 / attempts: 849 / deviation: 150</t>
+  </si>
+  <si>
+    <t>LTO0R / rating: 3124 / attempts: 557 / deviation: 134</t>
+  </si>
+  <si>
+    <t>eaNYJ / rating: 3115 / attempts: 525 / deviation: 135</t>
+  </si>
+  <si>
+    <t>JjSMQ / rating: 3111 / attempts: 586 / deviation: 113</t>
+  </si>
+  <si>
+    <t>ljVFq / rating: 3111 / attempts: 824 / deviation: 122</t>
+  </si>
+  <si>
+    <t>SC9LT / rating: 3104 / attempts: 460 / deviation: 136</t>
+  </si>
+  <si>
+    <t>ARXDk / rating: 3099 / attempts: 288 / deviation: 99</t>
+  </si>
+  <si>
+    <t>Count: 3223205 (+28043)</t>
+  </si>
+  <si>
+    <t>Rating: 4971166716 (1542.3054742096765 avg)</t>
+  </si>
+  <si>
+    <t>Attempts: 4568560324 (1417.3967600571482 avg)</t>
+  </si>
+  <si>
+    <t>Highest rated: sgHm8 3146 (x1) 868 149</t>
+  </si>
+  <si>
+    <t>Lowest rated: 07Ff7 400 (x1196) 236 91</t>
+  </si>
+  <si>
+    <t>Most played: 1t7Gr 909 1007577</t>
+  </si>
+  <si>
+    <t>sgHm8 / rating: 3146 / attempts: 868 / deviation: 149</t>
+  </si>
+  <si>
+    <t>7A7oQ / rating: 3072 / attempts: 383 / deviation: 120</t>
+  </si>
+  <si>
+    <t>CHPDL / rating: 3071 / attempts: 377 / deviation: 124</t>
+  </si>
+  <si>
+    <t>Ivt5K / rating: 3068 / attempts: 3145 / deviation: 131</t>
+  </si>
+  <si>
+    <t>Nz3cu / rating: 3047 / attempts: 421 / deviation: 123</t>
+  </si>
+  <si>
+    <t>AVyed / rating: 3012 / attempts: 325 / deviation: 123</t>
+  </si>
+  <si>
+    <t>7Gc6e / rating: 3005 / attempts: 249 / deviation: 121</t>
+  </si>
+  <si>
+    <t>XsAao / rating: 2999 / attempts: 218 / deviation: 117</t>
+  </si>
+  <si>
+    <t>ffbth / rating: 2998 / attempts: 237 / deviation: 121</t>
+  </si>
+  <si>
+    <t>3DPoO / rating: 2995 / attempts: 265 / deviation: 110</t>
+  </si>
+  <si>
+    <t>rBNad / rating: 2992 / attempts: 306 / deviation: 124</t>
   </si>
 </sst>
 </file>
@@ -9861,10 +9969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10470,6 +10578,101 @@
         <v>1417.3967600571482</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10478,10 +10681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11107,6 +11310,101 @@
         <v>1513.6443428591356</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/lichess_puzzles_distribution.xlsx
+++ b/data/lichess_puzzles_distribution.xlsx
@@ -5,24 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rust\lipuzzle-stats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\rust\lipuzzle-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lichess_puzzles_distribution" sheetId="1" r:id="rId1"/>
     <sheet name="2022-07" sheetId="2" r:id="rId2"/>
-    <sheet name="2023-04" sheetId="4" r:id="rId3"/>
-    <sheet name="2023-09" sheetId="3" r:id="rId4"/>
+    <sheet name="2023-01" sheetId="5" r:id="rId3"/>
+    <sheet name="2023-04" sheetId="4" r:id="rId4"/>
+    <sheet name="2023-09" sheetId="3" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Rating</t>
   </si>
@@ -148,6 +152,24 @@
   </si>
   <si>
     <t>rBNad / rating: 2992 / attempts: 306 / deviation: 124</t>
+  </si>
+  <si>
+    <t>[2238356] jO41u / rating: 545 / attempts: 52 / deviation: 120</t>
+  </si>
+  <si>
+    <t>[309255] 6GTNw / rating: 3006 / attempts: 293 / deviation: 112</t>
+  </si>
+  <si>
+    <t>[1883744] cCIIt / rating: 3007 / attempts: 586 / deviation: 117</t>
+  </si>
+  <si>
+    <t>[34948] 0iQKx / rating: 3015 / attempts: 743 / deviation: 129</t>
+  </si>
+  <si>
+    <t>[1787899] aFpBE / rating: 3023 / attempts: 319 / deviation: 120</t>
+  </si>
+  <si>
+    <t>[2721654] tBb9L / rating: 3024 / attempts: 333 / deviation: 128</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2294,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Lichess Puzzles Distribution by Rating (04/2023)</a:t>
+              <a:t>Lichess Puzzles Distribution by Rating (01/2023)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2332,7 +2354,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2023-04'!$B$1</c:f>
+              <c:f>'2023-01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2382,193 +2404,175 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:f>'2023-01'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1100</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1300</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1400</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1500</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1600</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1700</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1900</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2100</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2200</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2300</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2400</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2500</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2600</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2700</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023-04'!$B$2:$B$29</c:f>
+              <c:f>'2023-01'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>7857</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33761</c:v>
+                  <c:v>94392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92676</c:v>
+                  <c:v>53306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72860</c:v>
+                  <c:v>111303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152765</c:v>
+                  <c:v>164482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197778</c:v>
+                  <c:v>212374</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210096</c:v>
+                  <c:v>214730</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215639</c:v>
+                  <c:v>199796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191503</c:v>
+                  <c:v>211648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>205840</c:v>
+                  <c:v>220667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>208805</c:v>
+                  <c:v>224118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>211001</c:v>
+                  <c:v>206753</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204812</c:v>
+                  <c:v>184473</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>184322</c:v>
+                  <c:v>170830</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>165370</c:v>
+                  <c:v>158306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169699</c:v>
+                  <c:v>139858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>147191</c:v>
+                  <c:v>127382</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131008</c:v>
+                  <c:v>109262</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123430</c:v>
+                  <c:v>84510</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95913</c:v>
+                  <c:v>61094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66780</c:v>
+                  <c:v>44610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52847</c:v>
+                  <c:v>36256</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44926</c:v>
+                  <c:v>26700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36038</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-120C-468A-95EF-B0212F0E99FB}"/>
+              <c16:uniqueId val="{00000000-F813-494E-A51C-309BC6CB147D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2592,7 +2596,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2023-04'!$F$1</c:f>
+              <c:f>'2023-01'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2622,93 +2626,84 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'2023-04'!$F$2:$F$29</c:f>
+              <c:f>'2023-01'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>92.761486572483093</c:v>
+                  <c:v>127.93162393162299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.393116317644598</c:v>
+                  <c:v>95.279843630816103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.295912641892102</c:v>
+                  <c:v>92.630566915544193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.4602388141641</c:v>
+                  <c:v>93.620315714760594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.006094327889201</c:v>
+                  <c:v>93.326284943033201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.084079119012202</c:v>
+                  <c:v>99.930871952310497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.965582400426399</c:v>
+                  <c:v>98.817193685092903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.240967542976904</c:v>
+                  <c:v>101.79745340247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.739346119904098</c:v>
+                  <c:v>106.547371106743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88.597993587252205</c:v>
+                  <c:v>114.67426484249999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.288594621776298</c:v>
+                  <c:v>130.59297780633401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.869104885758802</c:v>
+                  <c:v>109.328087137792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.637511473936996</c:v>
+                  <c:v>104.399548985488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.741126940896905</c:v>
+                  <c:v>101.09685652402899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.304668319525902</c:v>
+                  <c:v>95.463520018192597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84.627640705012993</c:v>
+                  <c:v>92.858170430007505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.443369499493798</c:v>
+                  <c:v>92.394906658711506</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.309385686370206</c:v>
+                  <c:v>91.074811004740894</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.470145021469605</c:v>
+                  <c:v>88.797893740385703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.917685819440507</c:v>
+                  <c:v>88.785265328837497</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.157262653488999</c:v>
+                  <c:v>90.393140551445796</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>91.625560580543805</c:v>
+                  <c:v>93.830345322153505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95.750968258914597</c:v>
+                  <c:v>99.7003370786516</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>101.372467950496</c:v>
+                  <c:v>101.752542372881</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>104.65306122448899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>111.17647058823501</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>123.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>149</c:v>
+                  <c:v>112.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2711,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-120C-468A-95EF-B0212F0E99FB}"/>
+              <c16:uniqueId val="{00000001-F813-494E-A51C-309BC6CB147D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3037,7 +3032,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Attempts Distribution by Rating </a:t>
+              <a:t> Attempts Distribution by Rating (01/2023) </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3047,8 +3042,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.1725153208307963E-2"/>
-          <c:y val="1.56128024980484E-2"/>
+          <c:x val="1.6151382716504702E-2"/>
+          <c:y val="1.8214936247723135E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3098,7 +3093,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2023-04'!$C$1</c:f>
+              <c:f>'2023-01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3125,193 +3120,175 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:f>'2023-01'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1100</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1300</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1400</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1500</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1600</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1700</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1900</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2100</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2200</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2300</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2400</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2500</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2600</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2700</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023-04'!$C$2:$C$29</c:f>
+              <c:f>'2023-01'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2095182</c:v>
+                  <c:v>6115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13281791</c:v>
+                  <c:v>32293586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33071899</c:v>
+                  <c:v>19259447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31143336</c:v>
+                  <c:v>44366624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75707704</c:v>
+                  <c:v>75454172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118414999</c:v>
+                  <c:v>125473123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162466703</c:v>
+                  <c:v>189192740</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>254719511</c:v>
+                  <c:v>268609330</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344963539</c:v>
+                  <c:v>368902192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>477079503</c:v>
+                  <c:v>415115740</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>548697588</c:v>
+                  <c:v>390864271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>551410185</c:v>
+                  <c:v>322392558</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>452610080</c:v>
+                  <c:v>251562453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>343223684</c:v>
+                  <c:v>219745473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>285212074</c:v>
+                  <c:v>203068385</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>284060407</c:v>
+                  <c:v>164514358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>211633914</c:v>
+                  <c:v>111106432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137091575</c:v>
+                  <c:v>76930811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100899577</c:v>
+                  <c:v>46837563</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59012003</c:v>
+                  <c:v>26667156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30152551</c:v>
+                  <c:v>16902602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21104976</c:v>
+                  <c:v>12710297</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15439039</c:v>
+                  <c:v>10418393</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14942599</c:v>
+                  <c:v>121821</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92142</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>868</c:v>
+                  <c:v>11603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2413-4527-89FD-4E67035561E0}"/>
+              <c16:uniqueId val="{00000000-10EA-462A-9D5C-95792122B60E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3336,7 +3313,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2023-04'!$E$1</c:f>
+              <c:f>'2023-01'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3369,186 +3346,168 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:f>'2023-01'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1100</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1300</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1400</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1500</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1600</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1700</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1900</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2100</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2200</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2300</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2400</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2500</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2600</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2700</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023-04'!$E$2:$E$29</c:f>
+              <c:f>'2023-01'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>266.66437571592201</c:v>
+                  <c:v>52.264957264957197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393.40632682681201</c:v>
+                  <c:v>342.12206542927299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>356.85505416720599</c:v>
+                  <c:v>361.29979739616499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>427.44079055723302</c:v>
+                  <c:v>398.61121443267399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>495.58278401466299</c:v>
+                  <c:v>458.73817195802502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>598.726850306909</c:v>
+                  <c:v>590.81207209922104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>773.29745925672</c:v>
+                  <c:v>881.07269594374304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1181.23118267103</c:v>
+                  <c:v>1344.4179563154401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1801.34796321728</c:v>
+                  <c:v>1742.9987148472901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2317.7200884181798</c:v>
+                  <c:v>1881.18631240738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2627.7990852709399</c:v>
+                  <c:v>1744.01106113743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2613.3060269856501</c:v>
+                  <c:v>1559.312600059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2209.88067105443</c:v>
+                  <c:v>1363.68169325592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1862.0874556482599</c:v>
+                  <c:v>1286.3400632207399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1724.69053637298</c:v>
+                  <c:v>1282.7586130658301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1673.9073712868001</c:v>
+                  <c:v>1176.2956570235499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1437.81830410826</c:v>
+                  <c:v>872.23023661113803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1046.43666798974</c:v>
+                  <c:v>704.094845417437</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>817.46396338005297</c:v>
+                  <c:v>554.22509762158302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>615.26594934993102</c:v>
+                  <c:v>436.49386191769997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>451.52067984426401</c:v>
+                  <c:v>378.897153104685</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>399.35996366870398</c:v>
+                  <c:v>350.57085723742199</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>343.65487690869401</c:v>
+                  <c:v>390.20198501872602</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>414.63452466840499</c:v>
+                  <c:v>412.952542372881</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>470.11224489795899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>329.35294117646998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>816.66666666666595</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>868</c:v>
+                  <c:v>464.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,7 +3515,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2413-4527-89FD-4E67035561E0}"/>
+              <c16:uniqueId val="{00000001-10EA-462A-9D5C-95792122B60E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3874,6 +3833,1608 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzles Distribution by Rating (04/2023)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6712160294240194E-2"/>
+          <c:y val="1.8211380248498277E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of puzzles (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>7857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>211001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165370</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52847</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-120C-468A-95EF-B0212F0E99FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="480464032"/>
+        <c:axId val="480462392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating deviation per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$F$2:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>92.761486572483093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.393116317644598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.295912641892102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.4602388141641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.006094327889201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.084079119012202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.965582400426399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.240967542976904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.739346119904098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.597993587252205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.288594621776298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.869104885758802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.637511473936996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.741126940896905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.304668319525902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.627640705012993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.443369499493798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.309385686370206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.470145021469605</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.917685819440507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.157262653488999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.625560580543805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.750968258914597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.372467950496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104.65306122448899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>111.17647058823501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-120C-468A-95EF-B0212F0E99FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="192990400"/>
+        <c:axId val="192984496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480464032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480462392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480462392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480464032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192984496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192990400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="192990400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192984496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66456910069865327"/>
+          <c:y val="6.705434304545491E-3"/>
+          <c:w val="0.27633298090521341"/>
+          <c:h val="8.78054836125233E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Attempts Distribution by Rating </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1725153208307963E-2"/>
+          <c:y val="1.56128024980484E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2095182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13281791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33071899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31143336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75707704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118414999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162466703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254719511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>344963539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>477079503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>548697588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>551410185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>452610080</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343223684</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285212074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>284060407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>211633914</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137091575</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100899577</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59012003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30152551</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21104976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15439039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14942599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2413-4527-89FD-4E67035561E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="133189912"/>
+        <c:axId val="133188600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-04'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-04'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-04'!$E$2:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>266.66437571592201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393.40632682681201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356.85505416720599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427.44079055723302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.58278401466299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598.726850306909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>773.29745925672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1181.23118267103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1801.34796321728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2317.7200884181798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2627.7990852709399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2613.3060269856501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2209.88067105443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1862.0874556482599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1724.69053637298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1673.9073712868001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1437.81830410826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1046.43666798974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>817.46396338005297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>615.26594934993102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>451.52067984426401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>399.35996366870398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343.65487690869401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>414.63452466840499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>470.11224489795899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>329.35294117646998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>816.66666666666595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2413-4527-89FD-4E67035561E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468796456"/>
+        <c:axId val="468794160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133189912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133188600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133188600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133189912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468794160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468796456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="468796456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="468794160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69729886223238491"/>
+          <c:y val="9.2111436890060881E-3"/>
+          <c:w val="0.23687830004855948"/>
+          <c:h val="8.7822628728785962E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Lichess Puzzles Distribution by Rating (09/2023)</a:t>
             </a:r>
           </a:p>
@@ -4603,7 +6164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5696,6 +7257,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -8177,6 +9818,998 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8744,6 +11377,75 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>1</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>315912</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>103821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -8806,7 +11508,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8873,6 +11575,463 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="lichess_puzzles_distribution"/>
+      <sheetName val="2022-07"/>
+      <sheetName val="2023-01"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Number of puzzles (left axis)</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Attempts (left axis)</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Attempts per puzzle (right axis)</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Rating deviation per puzzle (right axis)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>500</v>
+          </cell>
+          <cell r="B2">
+            <v>117</v>
+          </cell>
+          <cell r="C2">
+            <v>6115</v>
+          </cell>
+          <cell r="E2">
+            <v>52.264957264957197</v>
+          </cell>
+          <cell r="F2">
+            <v>127.93162393162299</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>600</v>
+          </cell>
+          <cell r="B3">
+            <v>94392</v>
+          </cell>
+          <cell r="C3">
+            <v>32293586</v>
+          </cell>
+          <cell r="E3">
+            <v>342.12206542927299</v>
+          </cell>
+          <cell r="F3">
+            <v>95.279843630816103</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>700</v>
+          </cell>
+          <cell r="B4">
+            <v>53306</v>
+          </cell>
+          <cell r="C4">
+            <v>19259447</v>
+          </cell>
+          <cell r="E4">
+            <v>361.29979739616499</v>
+          </cell>
+          <cell r="F4">
+            <v>92.630566915544193</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>800</v>
+          </cell>
+          <cell r="B5">
+            <v>111303</v>
+          </cell>
+          <cell r="C5">
+            <v>44366624</v>
+          </cell>
+          <cell r="E5">
+            <v>398.61121443267399</v>
+          </cell>
+          <cell r="F5">
+            <v>93.620315714760594</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>900</v>
+          </cell>
+          <cell r="B6">
+            <v>164482</v>
+          </cell>
+          <cell r="C6">
+            <v>75454172</v>
+          </cell>
+          <cell r="E6">
+            <v>458.73817195802502</v>
+          </cell>
+          <cell r="F6">
+            <v>93.326284943033201</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1000</v>
+          </cell>
+          <cell r="B7">
+            <v>212374</v>
+          </cell>
+          <cell r="C7">
+            <v>125473123</v>
+          </cell>
+          <cell r="E7">
+            <v>590.81207209922104</v>
+          </cell>
+          <cell r="F7">
+            <v>99.930871952310497</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1100</v>
+          </cell>
+          <cell r="B8">
+            <v>214730</v>
+          </cell>
+          <cell r="C8">
+            <v>189192740</v>
+          </cell>
+          <cell r="E8">
+            <v>881.07269594374304</v>
+          </cell>
+          <cell r="F8">
+            <v>98.817193685092903</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1200</v>
+          </cell>
+          <cell r="B9">
+            <v>199796</v>
+          </cell>
+          <cell r="C9">
+            <v>268609330</v>
+          </cell>
+          <cell r="E9">
+            <v>1344.4179563154401</v>
+          </cell>
+          <cell r="F9">
+            <v>101.79745340247</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1300</v>
+          </cell>
+          <cell r="B10">
+            <v>211648</v>
+          </cell>
+          <cell r="C10">
+            <v>368902192</v>
+          </cell>
+          <cell r="E10">
+            <v>1742.9987148472901</v>
+          </cell>
+          <cell r="F10">
+            <v>106.547371106743</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1400</v>
+          </cell>
+          <cell r="B11">
+            <v>220667</v>
+          </cell>
+          <cell r="C11">
+            <v>415115740</v>
+          </cell>
+          <cell r="E11">
+            <v>1881.18631240738</v>
+          </cell>
+          <cell r="F11">
+            <v>114.67426484249999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1500</v>
+          </cell>
+          <cell r="B12">
+            <v>224118</v>
+          </cell>
+          <cell r="C12">
+            <v>390864271</v>
+          </cell>
+          <cell r="E12">
+            <v>1744.01106113743</v>
+          </cell>
+          <cell r="F12">
+            <v>130.59297780633401</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1600</v>
+          </cell>
+          <cell r="B13">
+            <v>206753</v>
+          </cell>
+          <cell r="C13">
+            <v>322392558</v>
+          </cell>
+          <cell r="E13">
+            <v>1559.312600059</v>
+          </cell>
+          <cell r="F13">
+            <v>109.328087137792</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1700</v>
+          </cell>
+          <cell r="B14">
+            <v>184473</v>
+          </cell>
+          <cell r="C14">
+            <v>251562453</v>
+          </cell>
+          <cell r="E14">
+            <v>1363.68169325592</v>
+          </cell>
+          <cell r="F14">
+            <v>104.399548985488</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1800</v>
+          </cell>
+          <cell r="B15">
+            <v>170830</v>
+          </cell>
+          <cell r="C15">
+            <v>219745473</v>
+          </cell>
+          <cell r="E15">
+            <v>1286.3400632207399</v>
+          </cell>
+          <cell r="F15">
+            <v>101.09685652402899</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1900</v>
+          </cell>
+          <cell r="B16">
+            <v>158306</v>
+          </cell>
+          <cell r="C16">
+            <v>203068385</v>
+          </cell>
+          <cell r="E16">
+            <v>1282.7586130658301</v>
+          </cell>
+          <cell r="F16">
+            <v>95.463520018192597</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2000</v>
+          </cell>
+          <cell r="B17">
+            <v>139858</v>
+          </cell>
+          <cell r="C17">
+            <v>164514358</v>
+          </cell>
+          <cell r="E17">
+            <v>1176.2956570235499</v>
+          </cell>
+          <cell r="F17">
+            <v>92.858170430007505</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2100</v>
+          </cell>
+          <cell r="B18">
+            <v>127382</v>
+          </cell>
+          <cell r="C18">
+            <v>111106432</v>
+          </cell>
+          <cell r="E18">
+            <v>872.23023661113803</v>
+          </cell>
+          <cell r="F18">
+            <v>92.394906658711506</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2200</v>
+          </cell>
+          <cell r="B19">
+            <v>109262</v>
+          </cell>
+          <cell r="C19">
+            <v>76930811</v>
+          </cell>
+          <cell r="E19">
+            <v>704.094845417437</v>
+          </cell>
+          <cell r="F19">
+            <v>91.074811004740894</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2300</v>
+          </cell>
+          <cell r="B20">
+            <v>84510</v>
+          </cell>
+          <cell r="C20">
+            <v>46837563</v>
+          </cell>
+          <cell r="E20">
+            <v>554.22509762158302</v>
+          </cell>
+          <cell r="F20">
+            <v>88.797893740385703</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2400</v>
+          </cell>
+          <cell r="B21">
+            <v>61094</v>
+          </cell>
+          <cell r="C21">
+            <v>26667156</v>
+          </cell>
+          <cell r="E21">
+            <v>436.49386191769997</v>
+          </cell>
+          <cell r="F21">
+            <v>88.785265328837497</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2500</v>
+          </cell>
+          <cell r="B22">
+            <v>44610</v>
+          </cell>
+          <cell r="C22">
+            <v>16902602</v>
+          </cell>
+          <cell r="E22">
+            <v>378.897153104685</v>
+          </cell>
+          <cell r="F22">
+            <v>90.393140551445796</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2600</v>
+          </cell>
+          <cell r="B23">
+            <v>36256</v>
+          </cell>
+          <cell r="C23">
+            <v>12710297</v>
+          </cell>
+          <cell r="E23">
+            <v>350.57085723742199</v>
+          </cell>
+          <cell r="F23">
+            <v>93.830345322153505</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2700</v>
+          </cell>
+          <cell r="B24">
+            <v>26700</v>
+          </cell>
+          <cell r="C24">
+            <v>10418393</v>
+          </cell>
+          <cell r="E24">
+            <v>390.20198501872602</v>
+          </cell>
+          <cell r="F24">
+            <v>99.7003370786516</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2800</v>
+          </cell>
+          <cell r="B25">
+            <v>295</v>
+          </cell>
+          <cell r="C25">
+            <v>121821</v>
+          </cell>
+          <cell r="E25">
+            <v>412.952542372881</v>
+          </cell>
+          <cell r="F25">
+            <v>101.752542372881</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2900</v>
+          </cell>
+          <cell r="B26">
+            <v>25</v>
+          </cell>
+          <cell r="C26">
+            <v>11603</v>
+          </cell>
+          <cell r="E26">
+            <v>464.12</v>
+          </cell>
+          <cell r="F26">
+            <v>112.36</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9969,10 +13128,626 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>6115</v>
+      </c>
+      <c r="D2" s="1">
+        <v>14968</v>
+      </c>
+      <c r="E2" s="1">
+        <v>52.264957264957197</v>
+      </c>
+      <c r="F2" s="1">
+        <v>127.93162393162299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>600</v>
+      </c>
+      <c r="B3">
+        <v>94392</v>
+      </c>
+      <c r="C3">
+        <v>32293586</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8993655</v>
+      </c>
+      <c r="E3" s="1">
+        <v>342.12206542927299</v>
+      </c>
+      <c r="F3" s="1">
+        <v>95.279843630816103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>700</v>
+      </c>
+      <c r="B4">
+        <v>53306</v>
+      </c>
+      <c r="C4">
+        <v>19259447</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4937765</v>
+      </c>
+      <c r="E4" s="1">
+        <v>361.29979739616499</v>
+      </c>
+      <c r="F4" s="1">
+        <v>92.630566915544193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>111303</v>
+      </c>
+      <c r="C5">
+        <v>44366624</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10420222</v>
+      </c>
+      <c r="E5" s="1">
+        <v>398.61121443267399</v>
+      </c>
+      <c r="F5" s="1">
+        <v>93.620315714760594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>900</v>
+      </c>
+      <c r="B6">
+        <v>164482</v>
+      </c>
+      <c r="C6">
+        <v>75454172</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15350494</v>
+      </c>
+      <c r="E6" s="1">
+        <v>458.73817195802502</v>
+      </c>
+      <c r="F6" s="1">
+        <v>93.326284943033201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>212374</v>
+      </c>
+      <c r="C7">
+        <v>125473123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21222719</v>
+      </c>
+      <c r="E7" s="1">
+        <v>590.81207209922104</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99.930871952310497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1100</v>
+      </c>
+      <c r="B8">
+        <v>214730</v>
+      </c>
+      <c r="C8">
+        <v>189192740</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21219016</v>
+      </c>
+      <c r="E8" s="1">
+        <v>881.07269594374304</v>
+      </c>
+      <c r="F8" s="1">
+        <v>98.817193685092903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1200</v>
+      </c>
+      <c r="B9">
+        <v>199796</v>
+      </c>
+      <c r="C9">
+        <v>268609330</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20338724</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1344.4179563154401</v>
+      </c>
+      <c r="F9" s="1">
+        <v>101.79745340247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1300</v>
+      </c>
+      <c r="B10">
+        <v>211648</v>
+      </c>
+      <c r="C10">
+        <v>368902192</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22550538</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1742.9987148472901</v>
+      </c>
+      <c r="F10" s="1">
+        <v>106.547371106743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1400</v>
+      </c>
+      <c r="B11">
+        <v>220667</v>
+      </c>
+      <c r="C11">
+        <v>415115740</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25304826</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1881.18631240738</v>
+      </c>
+      <c r="F11" s="1">
+        <v>114.67426484249999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1500</v>
+      </c>
+      <c r="B12">
+        <v>224118</v>
+      </c>
+      <c r="C12">
+        <v>390864271</v>
+      </c>
+      <c r="D12" s="1">
+        <v>29268237</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1744.01106113743</v>
+      </c>
+      <c r="F12" s="1">
+        <v>130.59297780633401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1600</v>
+      </c>
+      <c r="B13">
+        <v>206753</v>
+      </c>
+      <c r="C13">
+        <v>322392558</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22603910</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1559.312600059</v>
+      </c>
+      <c r="F13" s="1">
+        <v>109.328087137792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1700</v>
+      </c>
+      <c r="B14">
+        <v>184473</v>
+      </c>
+      <c r="C14">
+        <v>251562453</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19258898</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1363.68169325592</v>
+      </c>
+      <c r="F14" s="1">
+        <v>104.399548985488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1800</v>
+      </c>
+      <c r="B15">
+        <v>170830</v>
+      </c>
+      <c r="C15">
+        <v>219745473</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17270376</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1286.3400632207399</v>
+      </c>
+      <c r="F15" s="1">
+        <v>101.09685652402899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1900</v>
+      </c>
+      <c r="B16">
+        <v>158306</v>
+      </c>
+      <c r="C16">
+        <v>203068385</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15112448</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1282.7586130658301</v>
+      </c>
+      <c r="F16" s="1">
+        <v>95.463520018192597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <v>139858</v>
+      </c>
+      <c r="C17">
+        <v>164514358</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12986958</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1176.2956570235499</v>
+      </c>
+      <c r="F17" s="1">
+        <v>92.858170430007505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2100</v>
+      </c>
+      <c r="B18">
+        <v>127382</v>
+      </c>
+      <c r="C18">
+        <v>111106432</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11769448</v>
+      </c>
+      <c r="E18" s="1">
+        <v>872.23023661113803</v>
+      </c>
+      <c r="F18" s="1">
+        <v>92.394906658711506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2200</v>
+      </c>
+      <c r="B19">
+        <v>109262</v>
+      </c>
+      <c r="C19">
+        <v>76930811</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9951016</v>
+      </c>
+      <c r="E19" s="1">
+        <v>704.094845417437</v>
+      </c>
+      <c r="F19" s="1">
+        <v>91.074811004740894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2300</v>
+      </c>
+      <c r="B20">
+        <v>84510</v>
+      </c>
+      <c r="C20">
+        <v>46837563</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7504310</v>
+      </c>
+      <c r="E20" s="1">
+        <v>554.22509762158302</v>
+      </c>
+      <c r="F20" s="1">
+        <v>88.797893740385703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2400</v>
+      </c>
+      <c r="B21">
+        <v>61094</v>
+      </c>
+      <c r="C21">
+        <v>26667156</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5424247</v>
+      </c>
+      <c r="E21" s="1">
+        <v>436.49386191769997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>88.785265328837497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2500</v>
+      </c>
+      <c r="B22">
+        <v>44610</v>
+      </c>
+      <c r="C22">
+        <v>16902602</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4032438</v>
+      </c>
+      <c r="E22" s="1">
+        <v>378.897153104685</v>
+      </c>
+      <c r="F22" s="1">
+        <v>90.393140551445796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2600</v>
+      </c>
+      <c r="B23">
+        <v>36256</v>
+      </c>
+      <c r="C23">
+        <v>12710297</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3401913</v>
+      </c>
+      <c r="E23" s="1">
+        <v>350.57085723742199</v>
+      </c>
+      <c r="F23" s="1">
+        <v>93.830345322153505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2700</v>
+      </c>
+      <c r="B24">
+        <v>26700</v>
+      </c>
+      <c r="C24">
+        <v>10418393</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2661999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>390.20198501872602</v>
+      </c>
+      <c r="F24" s="1">
+        <v>99.7003370786516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2800</v>
+      </c>
+      <c r="B25">
+        <v>295</v>
+      </c>
+      <c r="C25">
+        <v>121821</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30017</v>
+      </c>
+      <c r="E25" s="1">
+        <v>412.952542372881</v>
+      </c>
+      <c r="F25" s="1">
+        <v>101.752542372881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2900</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>11603</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2809</v>
+      </c>
+      <c r="E26" s="1">
+        <v>464.12</v>
+      </c>
+      <c r="F26" s="1">
+        <v>112.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3000</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2274</v>
+      </c>
+      <c r="D27" s="1">
+        <v>606</v>
+      </c>
+      <c r="E27" s="1">
+        <v>454.8</v>
+      </c>
+      <c r="F27">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>SUM(B2:B27)</f>
+        <v>3057292</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C2:C27)</f>
+        <v>3392529519</v>
+      </c>
+      <c r="D28" s="1">
+        <f>SUM(D2:D27)</f>
+        <v>311632557</v>
+      </c>
+      <c r="E28" s="1">
+        <f>C28/B28</f>
+        <v>1109.6517830158193</v>
+      </c>
+      <c r="F28">
+        <f>D28/B28</f>
+        <v>101.93091042661283</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10679,11 +14454,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/data/lichess_puzzles_distribution.xlsx
+++ b/data/lichess_puzzles_distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lichess_puzzles_distribution" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="2023-01" sheetId="5" r:id="rId3"/>
     <sheet name="2023-04" sheetId="4" r:id="rId4"/>
     <sheet name="2023-09" sheetId="3" r:id="rId5"/>
+    <sheet name="2023-11" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Rating</t>
   </si>
@@ -170,6 +171,57 @@
   </si>
   <si>
     <t>[2721654] tBb9L / rating: 3024 / attempts: 333 / deviation: 128</t>
+  </si>
+  <si>
+    <t>Count: 3529265 (+24492)</t>
+  </si>
+  <si>
+    <t>Rating: 5392307494 (1527.8839911426317 avg)</t>
+  </si>
+  <si>
+    <t>Attempts: 5532293436 (1567.5483240844765 avg)</t>
+  </si>
+  <si>
+    <t>Highest rated: 8U4Gp 3326 (x1) 466 149</t>
+  </si>
+  <si>
+    <t>Lowest rated: 01J5O 399 (x379) 1699 113</t>
+  </si>
+  <si>
+    <t>Most played: 1t7Gr 987 1007595</t>
+  </si>
+  <si>
+    <t>8U4Gp / rating: 3326 / attempts: 466 / deviation: 149</t>
+  </si>
+  <si>
+    <t>6B8UW / rating: 3206 / attempts: 382 / deviation: 133</t>
+  </si>
+  <si>
+    <t>zesbO / rating: 3197 / attempts: 717 / deviation: 141</t>
+  </si>
+  <si>
+    <t>u8h0l / rating: 3192 / attempts: 413 / deviation: 131</t>
+  </si>
+  <si>
+    <t>Q727S / rating: 3187 / attempts: 397 / deviation: 129</t>
+  </si>
+  <si>
+    <t>zhl5i / rating: 3179 / attempts: 6045 / deviation: 144</t>
+  </si>
+  <si>
+    <t>d2zVj / rating: 3169 / attempts: 1174 / deviation: 146</t>
+  </si>
+  <si>
+    <t>sgHm8 / rating: 3166 / attempts: 927 / deviation: 151</t>
+  </si>
+  <si>
+    <t>9P4Up / rating: 3165 / attempts: 1073 / deviation: 132</t>
+  </si>
+  <si>
+    <t>R5XBp / rating: 3158 / attempts: 525 / deviation: 143</t>
+  </si>
+  <si>
+    <t>rLxlN / rating: 3140 / attempts: 1073 / deviation: 148</t>
   </si>
 </sst>
 </file>
@@ -1448,6 +1500,883 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Attempts Distribution by Rating </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1725153208307963E-2"/>
+          <c:y val="1.56128024980484E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-11'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>137388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8775134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21041251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35229563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37760650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87097467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142075951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204914834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338919018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>430033304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>592608070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>662462982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>651678146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>533633191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>403369892</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>324152572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340530469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253695471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166158956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121410425</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72600295</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37536341</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24878139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19585737</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18413663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2384887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>975729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>209646</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23417</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAF1-46B5-A0C4-8965AF746DA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="133189912"/>
+        <c:axId val="133188600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-11'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>362.50131926121298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>375.889226815163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>397.23708206686899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365.14887023217199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>441.13424222245499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.72964795998598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>636.76923180351298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880.86538651672799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1327.23605775443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2169.4091794214601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2689.4310791614998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3012.2770540330298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2912.0074444791899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2425.6825944461798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2077.7161547535002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1897.54881839521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1835.6843929576401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1599.0184549058599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1206.4633324620199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>913.62971073385097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>688.93154363689803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>533.55044632704096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>457.17586416009698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>403.68812993383699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>450.211809290953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>549.38654687859901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>609.83062500000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>730.47386759581798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>867.29629629629596</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAF1-46B5-A0C4-8965AF746DA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468796456"/>
+        <c:axId val="468794160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133189912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133188600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133188600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133189912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468794160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468796456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="468796456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="468794160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69729886223238491"/>
+          <c:y val="9.2111436890060881E-3"/>
+          <c:w val="0.23687830004855948"/>
+          <c:h val="8.7822628728785962E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7017,7 +7946,835 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzles Distribution by Rating (09/2023)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6712160294240194E-2"/>
+          <c:y val="1.8211380248498277E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of puzzles (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-11'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223790</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>219993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>194141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158657</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54417</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C87-4EF0-A863-84E1924C06C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="480464032"/>
+        <c:axId val="480462392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating deviation per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>95.831134564643804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.190447633326201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.813740112141005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.533157131011606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.155363964532299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.221104912470906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.191000358551406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.565845186971501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.349420615060396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.766952871974397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.827608272406707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.838992183556797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.570552750346295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.161432409213006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.109302002153001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.490917712071195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.004630577986703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.7526109783999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.873457059045606</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.609754078622601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.617179567474196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.020297930407096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.475439660400198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.842117196034295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101.909290953545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.95116332642201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110.10312500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118.557491289198</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C87-4EF0-A863-84E1924C06C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="192990400"/>
+        <c:axId val="192984496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480464032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480462392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480462392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480464032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192984496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192990400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="192990400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192984496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66456910069865327"/>
+          <c:y val="6.705434304545491E-3"/>
+          <c:w val="0.27633298090521341"/>
+          <c:h val="8.78054836125233E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7337,6 +9094,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -7833,7 +9630,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8329,7 +10126,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8825,7 +10622,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9321,7 +11118,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9817,7 +11614,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10313,7 +12110,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10809,7 +12606,999 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11553,6 +14342,75 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>56</xdr:row>
+      <xdr:rowOff>103821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>315912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>103821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13746,7 +16604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -14458,8 +17316,738 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="B2">
+        <v>18669</v>
+      </c>
+      <c r="C2">
+        <v>6544045</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1803025</v>
+      </c>
+      <c r="E2" s="1">
+        <v>350.530023032835</v>
+      </c>
+      <c r="F2" s="1">
+        <v>96.578552680914797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>47792</v>
+      </c>
+      <c r="C3">
+        <v>18734979</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4505370</v>
+      </c>
+      <c r="E3" s="1">
+        <v>392.01077586206799</v>
+      </c>
+      <c r="F3" s="1">
+        <v>94.270379979912903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>600</v>
+      </c>
+      <c r="B4">
+        <v>94468</v>
+      </c>
+      <c r="C4">
+        <v>33644890</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8789413</v>
+      </c>
+      <c r="E4" s="1">
+        <v>356.15118346953398</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93.041167379429993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>700</v>
+      </c>
+      <c r="B5">
+        <v>82630</v>
+      </c>
+      <c r="C5">
+        <v>35938612</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7306545</v>
+      </c>
+      <c r="E5" s="1">
+        <v>434.93418855137298</v>
+      </c>
+      <c r="F5" s="1">
+        <v>88.424845697688497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6">
+        <v>166308</v>
+      </c>
+      <c r="C6">
+        <v>82467883</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14843782</v>
+      </c>
+      <c r="E6" s="1">
+        <v>495.874419751304</v>
+      </c>
+      <c r="F6" s="1">
+        <v>89.254768261298295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>900</v>
+      </c>
+      <c r="B7">
+        <v>217098</v>
+      </c>
+      <c r="C7">
+        <v>134832137</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19125813</v>
+      </c>
+      <c r="E7" s="1">
+        <v>621.06577213977096</v>
+      </c>
+      <c r="F7" s="1">
+        <v>88.097601083381704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>226696</v>
+      </c>
+      <c r="C8">
+        <v>190604164</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20500671</v>
+      </c>
+      <c r="E8" s="1">
+        <v>840.79191516391995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90.432433743868401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1100</v>
+      </c>
+      <c r="B9">
+        <v>241447</v>
+      </c>
+      <c r="C9">
+        <v>311755705</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21355482</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1291.19726068246</v>
+      </c>
+      <c r="F9" s="1">
+        <v>88.447907822420603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1200</v>
+      </c>
+      <c r="B10">
+        <v>196718</v>
+      </c>
+      <c r="C10">
+        <v>398678223</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17628285</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2026.64841549832</v>
+      </c>
+      <c r="F10" s="1">
+        <v>89.611957217946497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1300</v>
+      </c>
+      <c r="B11">
+        <v>215020</v>
+      </c>
+      <c r="C11">
+        <v>558241904</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18913206</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2596.2324620965401</v>
+      </c>
+      <c r="F11" s="1">
+        <v>87.9602176541717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1400</v>
+      </c>
+      <c r="B12">
+        <v>219095</v>
+      </c>
+      <c r="C12">
+        <v>624142310</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19252368</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2848.7291357630202</v>
+      </c>
+      <c r="F12" s="1">
+        <v>87.872238070243498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1500</v>
+      </c>
+      <c r="B13">
+        <v>219665</v>
+      </c>
+      <c r="C13">
+        <v>617943425</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19247466</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2813.1173605262502</v>
+      </c>
+      <c r="F13" s="1">
+        <v>87.621906084264594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1600</v>
+      </c>
+      <c r="B14">
+        <v>217895</v>
+      </c>
+      <c r="C14">
+        <v>510369911</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19018590</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2342.27454048968</v>
+      </c>
+      <c r="F14" s="1">
+        <v>87.283278643383198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1700</v>
+      </c>
+      <c r="B15">
+        <v>189225</v>
+      </c>
+      <c r="C15">
+        <v>377009824</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16499742</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1992.3890817809399</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.196416963931796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1800</v>
+      </c>
+      <c r="B16">
+        <v>168087</v>
+      </c>
+      <c r="C16">
+        <v>308407388</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14490383</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1834.8080934278</v>
+      </c>
+      <c r="F16" s="1">
+        <v>86.207636521563202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1900</v>
+      </c>
+      <c r="B17">
+        <v>182341</v>
+      </c>
+      <c r="C17">
+        <v>323465196</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15246441</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1773.9575630275101</v>
+      </c>
+      <c r="F17" s="1">
+        <v>83.614990594545304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>157142</v>
+      </c>
+      <c r="C18">
+        <v>244266559</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13352713</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1554.43203599292</v>
+      </c>
+      <c r="F18" s="1">
+        <v>84.972273485128099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2100</v>
+      </c>
+      <c r="B19">
+        <v>134257</v>
+      </c>
+      <c r="C19">
+        <v>154731629</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11529843</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1152.50325122712</v>
+      </c>
+      <c r="F19" s="1">
+        <v>85.878896444878094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2200</v>
+      </c>
+      <c r="B20">
+        <v>129657</v>
+      </c>
+      <c r="C20">
+        <v>113444628</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11126219</v>
+      </c>
+      <c r="E20" s="1">
+        <v>874.959531687452</v>
+      </c>
+      <c r="F20" s="1">
+        <v>85.812713544197294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2300</v>
+      </c>
+      <c r="B21">
+        <v>102568</v>
+      </c>
+      <c r="C21">
+        <v>67318996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9001244</v>
+      </c>
+      <c r="E21" s="1">
+        <v>656.33527025973001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>87.758794165821698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2400</v>
+      </c>
+      <c r="B22">
+        <v>68391</v>
+      </c>
+      <c r="C22">
+        <v>34401402</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6072248</v>
+      </c>
+      <c r="E22" s="1">
+        <v>503.01065929727503</v>
+      </c>
+      <c r="F22" s="1">
+        <v>88.787238086882695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2500</v>
+      </c>
+      <c r="B23">
+        <v>54840</v>
+      </c>
+      <c r="C23">
+        <v>24087864</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5011671</v>
+      </c>
+      <c r="E23" s="1">
+        <v>439.23894967177199</v>
+      </c>
+      <c r="F23" s="1">
+        <v>91.387144420131193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2600</v>
+      </c>
+      <c r="B24">
+        <v>47249</v>
+      </c>
+      <c r="C24">
+        <v>18036675</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4528351</v>
+      </c>
+      <c r="E24" s="1">
+        <v>381.73665051112101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>95.8401447649685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2700</v>
+      </c>
+      <c r="B25">
+        <v>40553</v>
+      </c>
+      <c r="C25">
+        <v>17712967</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4138699</v>
+      </c>
+      <c r="E25" s="1">
+        <v>436.78561388799801</v>
+      </c>
+      <c r="F25" s="1">
+        <v>102.05654328902899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2800</v>
+      </c>
+      <c r="B26">
+        <v>2227</v>
+      </c>
+      <c r="C26">
+        <v>1107493</v>
+      </c>
+      <c r="D26" s="1">
+        <v>233351</v>
+      </c>
+      <c r="E26" s="1">
+        <v>497.30264930399602</v>
+      </c>
+      <c r="F26" s="1">
+        <v>104.782667265379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2900</v>
+      </c>
+      <c r="B27">
+        <v>836</v>
+      </c>
+      <c r="C27">
+        <v>475443</v>
+      </c>
+      <c r="D27" s="1">
+        <v>92013</v>
+      </c>
+      <c r="E27" s="1">
+        <v>568.71172248803805</v>
+      </c>
+      <c r="F27" s="1">
+        <v>110.063397129186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3000</v>
+      </c>
+      <c r="B28">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>81164</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14280</v>
+      </c>
+      <c r="E28" s="1">
+        <v>670.77685950413195</v>
+      </c>
+      <c r="F28" s="1">
+        <v>118.016528925619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3100</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>11889</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1321</v>
+      </c>
+      <c r="F29" s="1">
+        <v>137.111111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3200</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>447</v>
+      </c>
+      <c r="D30" s="1">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1">
+        <v>447</v>
+      </c>
+      <c r="F30" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B2:B30)</f>
+        <v>3441005</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C2:C30)</f>
+        <v>5208457752</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="0">C31/B31</f>
+        <v>1513.6443428591356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14493,691 +18081,731 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B2">
-        <v>18669</v>
+        <v>379</v>
       </c>
       <c r="C2">
-        <v>6544045</v>
+        <v>137388</v>
       </c>
       <c r="D2" s="1">
-        <v>1803025</v>
+        <v>36320</v>
       </c>
       <c r="E2" s="1">
-        <v>350.530023032835</v>
+        <v>362.50131926121298</v>
       </c>
       <c r="F2" s="1">
-        <v>96.578552680914797</v>
+        <v>95.831134564643804</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B3">
-        <v>47792</v>
+        <v>23345</v>
       </c>
       <c r="C3">
-        <v>18734979</v>
+        <v>8775134</v>
       </c>
       <c r="D3" s="1">
-        <v>4505370</v>
+        <v>2245566</v>
       </c>
       <c r="E3" s="1">
-        <v>392.01077586206799</v>
+        <v>375.889226815163</v>
       </c>
       <c r="F3" s="1">
-        <v>94.270379979912903</v>
+        <v>96.190447633326201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B4">
-        <v>94468</v>
+        <v>52969</v>
       </c>
       <c r="C4">
-        <v>33644890</v>
+        <v>21041251</v>
       </c>
       <c r="D4" s="1">
-        <v>8789413</v>
+        <v>4969220</v>
       </c>
       <c r="E4" s="1">
-        <v>356.15118346953398</v>
+        <v>397.23708206686899</v>
       </c>
       <c r="F4" s="1">
-        <v>93.041167379429993</v>
+        <v>93.813740112141005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B5">
-        <v>82630</v>
+        <v>96480</v>
       </c>
       <c r="C5">
-        <v>35938612</v>
+        <v>35229563</v>
       </c>
       <c r="D5" s="1">
-        <v>7306545</v>
+        <v>8927599</v>
       </c>
       <c r="E5" s="1">
-        <v>434.93418855137298</v>
+        <v>365.14887023217199</v>
       </c>
       <c r="F5" s="1">
-        <v>88.424845697688497</v>
+        <v>92.533157131011606</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B6">
-        <v>166308</v>
+        <v>85599</v>
       </c>
       <c r="C6">
-        <v>82467883</v>
+        <v>37760650</v>
       </c>
       <c r="D6" s="1">
-        <v>14843782</v>
+        <v>7546011</v>
       </c>
       <c r="E6" s="1">
-        <v>495.874419751304</v>
+        <v>441.13424222245499</v>
       </c>
       <c r="F6" s="1">
-        <v>89.254768261298295</v>
+        <v>88.155363964532299</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B7">
-        <v>217098</v>
+        <v>171543</v>
       </c>
       <c r="C7">
-        <v>134832137</v>
+        <v>87097467</v>
       </c>
       <c r="D7" s="1">
-        <v>19125813</v>
+        <v>15305256</v>
       </c>
       <c r="E7" s="1">
-        <v>621.06577213977096</v>
+        <v>507.72964795998598</v>
       </c>
       <c r="F7" s="1">
-        <v>88.097601083381704</v>
+        <v>89.221104912470906</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B8">
-        <v>226696</v>
+        <v>223120</v>
       </c>
       <c r="C8">
-        <v>190604164</v>
+        <v>142075951</v>
       </c>
       <c r="D8" s="1">
-        <v>20500671</v>
+        <v>19677176</v>
       </c>
       <c r="E8" s="1">
-        <v>840.79191516391995</v>
+        <v>636.76923180351298</v>
       </c>
       <c r="F8" s="1">
-        <v>90.432433743868401</v>
+        <v>88.191000358551406</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="B9">
-        <v>241447</v>
+        <v>232629</v>
       </c>
       <c r="C9">
-        <v>311755705</v>
+        <v>204914834</v>
       </c>
       <c r="D9" s="1">
-        <v>21355482</v>
+        <v>21068242</v>
       </c>
       <c r="E9" s="1">
-        <v>1291.19726068246</v>
+        <v>880.86538651672799</v>
       </c>
       <c r="F9" s="1">
-        <v>88.447907822420603</v>
+        <v>90.565845186971501</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="B10">
-        <v>196718</v>
+        <v>255357</v>
       </c>
       <c r="C10">
-        <v>398678223</v>
+        <v>338919018</v>
       </c>
       <c r="D10" s="1">
-        <v>17628285</v>
+        <v>22560643</v>
       </c>
       <c r="E10" s="1">
-        <v>2026.64841549832</v>
+        <v>1327.23605775443</v>
       </c>
       <c r="F10" s="1">
-        <v>89.611957217946497</v>
+        <v>88.349420615060396</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="B11">
-        <v>215020</v>
+        <v>198226</v>
       </c>
       <c r="C11">
-        <v>558241904</v>
+        <v>430033304</v>
       </c>
       <c r="D11" s="1">
-        <v>18913206</v>
+        <v>17794144</v>
       </c>
       <c r="E11" s="1">
-        <v>2596.2324620965401</v>
+        <v>2169.4091794214601</v>
       </c>
       <c r="F11" s="1">
-        <v>87.9602176541717</v>
+        <v>89.766952871974397</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="B12">
-        <v>219095</v>
+        <v>220347</v>
       </c>
       <c r="C12">
-        <v>624142310</v>
+        <v>592608070</v>
       </c>
       <c r="D12" s="1">
-        <v>19252368</v>
+        <v>19352550</v>
       </c>
       <c r="E12" s="1">
-        <v>2848.7291357630202</v>
+        <v>2689.4310791614998</v>
       </c>
       <c r="F12" s="1">
-        <v>87.872238070243498</v>
+        <v>87.827608272406707</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="B13">
-        <v>219665</v>
+        <v>219921</v>
       </c>
       <c r="C13">
-        <v>617943425</v>
+        <v>662462982</v>
       </c>
       <c r="D13" s="1">
-        <v>19247466</v>
+        <v>19317639</v>
       </c>
       <c r="E13" s="1">
-        <v>2813.1173605262502</v>
+        <v>3012.2770540330298</v>
       </c>
       <c r="F13" s="1">
-        <v>87.621906084264594</v>
+        <v>87.838992183556797</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="B14">
-        <v>217895</v>
+        <v>223790</v>
       </c>
       <c r="C14">
-        <v>510369911</v>
+        <v>651678146</v>
       </c>
       <c r="D14" s="1">
-        <v>19018590</v>
+        <v>19597414</v>
       </c>
       <c r="E14" s="1">
-        <v>2342.27454048968</v>
+        <v>2912.0074444791899</v>
       </c>
       <c r="F14" s="1">
-        <v>87.283278643383198</v>
+        <v>87.570552750346295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="B15">
-        <v>189225</v>
+        <v>219993</v>
       </c>
       <c r="C15">
-        <v>377009824</v>
+        <v>533633191</v>
       </c>
       <c r="D15" s="1">
-        <v>16499742</v>
+        <v>19174905</v>
       </c>
       <c r="E15" s="1">
-        <v>1992.3890817809399</v>
+        <v>2425.6825944461798</v>
       </c>
       <c r="F15" s="1">
-        <v>87.196416963931796</v>
+        <v>87.161432409213006</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="B16">
-        <v>168087</v>
+        <v>194141</v>
       </c>
       <c r="C16">
-        <v>308407388</v>
+        <v>403369892</v>
       </c>
       <c r="D16" s="1">
-        <v>14490383</v>
+        <v>16911487</v>
       </c>
       <c r="E16" s="1">
-        <v>1834.8080934278</v>
+        <v>2077.7161547535002</v>
       </c>
       <c r="F16" s="1">
-        <v>86.207636521563202</v>
+        <v>87.109302002153001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="B17">
-        <v>182341</v>
+        <v>170827</v>
       </c>
       <c r="C17">
-        <v>323465196</v>
+        <v>324152572</v>
       </c>
       <c r="D17" s="1">
-        <v>15246441</v>
+        <v>14604157</v>
       </c>
       <c r="E17" s="1">
-        <v>1773.9575630275101</v>
+        <v>1897.54881839521</v>
       </c>
       <c r="F17" s="1">
-        <v>83.614990594545304</v>
+        <v>85.490917712071195</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="B18">
-        <v>157142</v>
+        <v>185506</v>
       </c>
       <c r="C18">
-        <v>244266559</v>
+        <v>340530469</v>
       </c>
       <c r="D18" s="1">
-        <v>13352713</v>
+        <v>15583363</v>
       </c>
       <c r="E18" s="1">
-        <v>1554.43203599292</v>
+        <v>1835.6843929576401</v>
       </c>
       <c r="F18" s="1">
-        <v>84.972273485128099</v>
+        <v>84.004630577986703</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B19">
-        <v>134257</v>
+        <v>158657</v>
       </c>
       <c r="C19">
-        <v>154731629</v>
+        <v>253695471</v>
       </c>
       <c r="D19" s="1">
-        <v>11529843</v>
+        <v>13446595</v>
       </c>
       <c r="E19" s="1">
-        <v>1152.50325122712</v>
+        <v>1599.0184549058599</v>
       </c>
       <c r="F19" s="1">
-        <v>85.878896444878094</v>
+        <v>84.7526109783999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="B20">
-        <v>129657</v>
+        <v>137724</v>
       </c>
       <c r="C20">
-        <v>113444628</v>
+        <v>166158956</v>
       </c>
       <c r="D20" s="1">
-        <v>11126219</v>
+        <v>11826836</v>
       </c>
       <c r="E20" s="1">
-        <v>874.959531687452</v>
+        <v>1206.4633324620199</v>
       </c>
       <c r="F20" s="1">
-        <v>85.812713544197294</v>
+        <v>85.873457059045606</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="B21">
-        <v>102568</v>
+        <v>132888</v>
       </c>
       <c r="C21">
-        <v>67318996</v>
+        <v>121410425</v>
       </c>
       <c r="D21" s="1">
-        <v>9001244</v>
+        <v>11376509</v>
       </c>
       <c r="E21" s="1">
-        <v>656.33527025973001</v>
+        <v>913.62971073385097</v>
       </c>
       <c r="F21" s="1">
-        <v>87.758794165821698</v>
+        <v>85.609754078622601</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="B22">
-        <v>68391</v>
+        <v>105381</v>
       </c>
       <c r="C22">
-        <v>34401402</v>
+        <v>72600295</v>
       </c>
       <c r="D22" s="1">
-        <v>6072248</v>
+        <v>9233186</v>
       </c>
       <c r="E22" s="1">
-        <v>503.01065929727503</v>
+        <v>688.93154363689803</v>
       </c>
       <c r="F22" s="1">
-        <v>88.787238086882695</v>
+        <v>87.617179567474196</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="B23">
-        <v>54840</v>
+        <v>70352</v>
       </c>
       <c r="C23">
-        <v>24087864</v>
+        <v>37536341</v>
       </c>
       <c r="D23" s="1">
-        <v>5011671</v>
+        <v>6262756</v>
       </c>
       <c r="E23" s="1">
-        <v>439.23894967177199</v>
+        <v>533.55044632704096</v>
       </c>
       <c r="F23" s="1">
-        <v>91.387144420131193</v>
+        <v>89.020297930407096</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="B24">
-        <v>47249</v>
+        <v>54417</v>
       </c>
       <c r="C24">
-        <v>18036675</v>
+        <v>24878139</v>
       </c>
       <c r="D24" s="1">
-        <v>4528351</v>
+        <v>4977819</v>
       </c>
       <c r="E24" s="1">
-        <v>381.73665051112101</v>
+        <v>457.17586416009698</v>
       </c>
       <c r="F24" s="1">
-        <v>95.8401447649685</v>
+        <v>91.475439660400198</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="B25">
-        <v>40553</v>
+        <v>48517</v>
       </c>
       <c r="C25">
-        <v>17712967</v>
+        <v>19585737</v>
       </c>
       <c r="D25" s="1">
-        <v>4138699</v>
+        <v>4649972</v>
       </c>
       <c r="E25" s="1">
-        <v>436.78561388799801</v>
+        <v>403.68812993383699</v>
       </c>
       <c r="F25" s="1">
-        <v>102.05654328902899</v>
+        <v>95.842117196034295</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="B26">
-        <v>2227</v>
+        <v>40900</v>
       </c>
       <c r="C26">
-        <v>1107493</v>
+        <v>18413663</v>
       </c>
       <c r="D26" s="1">
-        <v>233351</v>
+        <v>4168090</v>
       </c>
       <c r="E26" s="1">
-        <v>497.30264930399602</v>
+        <v>450.211809290953</v>
       </c>
       <c r="F26" s="1">
-        <v>104.782667265379</v>
+        <v>101.909290953545</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="B27">
-        <v>836</v>
+        <v>4341</v>
       </c>
       <c r="C27">
-        <v>475443</v>
+        <v>2384887</v>
       </c>
       <c r="D27" s="1">
-        <v>92013</v>
+        <v>459934</v>
       </c>
       <c r="E27" s="1">
-        <v>568.71172248803805</v>
+        <v>549.38654687859901</v>
       </c>
       <c r="F27" s="1">
-        <v>110.063397129186</v>
+        <v>105.95116332642201</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>1600</v>
       </c>
       <c r="C28">
-        <v>81164</v>
+        <v>975729</v>
       </c>
       <c r="D28" s="1">
-        <v>14280</v>
+        <v>176165</v>
       </c>
       <c r="E28" s="1">
-        <v>670.77685950413195</v>
+        <v>609.83062500000005</v>
       </c>
       <c r="F28" s="1">
-        <v>118.016528925619</v>
+        <v>110.10312500000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="C29">
-        <v>11889</v>
+        <v>209646</v>
       </c>
       <c r="D29" s="1">
-        <v>1234</v>
+        <v>34026</v>
       </c>
       <c r="E29" s="1">
-        <v>1321</v>
+        <v>730.47386759581798</v>
       </c>
       <c r="F29" s="1">
-        <v>137.111111111111</v>
+        <v>118.557491289198</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>3100</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>23417</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3525</v>
+      </c>
+      <c r="E30" s="1">
+        <v>867.29629629629596</v>
+      </c>
+      <c r="F30" s="1">
+        <v>130.555555555555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>3200</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>447</v>
-      </c>
-      <c r="D30" s="1">
-        <v>156</v>
-      </c>
-      <c r="E30" s="1">
-        <v>447</v>
-      </c>
-      <c r="F30" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>SUM(B2:B30)</f>
-        <v>3441005</v>
-      </c>
       <c r="C31">
-        <f>SUM(C2:C30)</f>
-        <v>5208457752</v>
+        <v>382</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31" si="0">C31/B31</f>
-        <v>1513.6443428591356</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E31" s="1">
+        <v>382</v>
+      </c>
+      <c r="F31" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3300</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>466</v>
+      </c>
+      <c r="D32" s="1">
+        <v>149</v>
+      </c>
+      <c r="E32" s="1">
+        <v>466</v>
+      </c>
+      <c r="F32" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>SUM(B2:B32)</f>
+        <v>3529265</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C2:C32)</f>
+        <v>5532293436</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33" si="0">C33/B33</f>
+        <v>1567.5483240844765</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/lichess_puzzles_distribution.xlsx
+++ b/data/lichess_puzzles_distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="lichess_puzzles_distribution" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,14 @@
     <sheet name="2023-04" sheetId="4" r:id="rId4"/>
     <sheet name="2023-09" sheetId="3" r:id="rId5"/>
     <sheet name="2023-11" sheetId="7" r:id="rId6"/>
+    <sheet name="2024-01" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Rating</t>
   </si>
@@ -222,6 +220,57 @@
   </si>
   <si>
     <t>rLxlN / rating: 3140 / attempts: 1073 / deviation: 148</t>
+  </si>
+  <si>
+    <t>Count: 3601287 (+24247)</t>
+  </si>
+  <si>
+    <t>Rating: 5494875204 (1525.8087467063858 avg)</t>
+  </si>
+  <si>
+    <t>Attempts: 5701240937 (1583.1120754885683 avg)</t>
+  </si>
+  <si>
+    <t>Highest rated: 8U4Gp 3327 (x1) 472 149</t>
+  </si>
+  <si>
+    <t>Lowest rated: 01GC2 399 (x810) 649 107</t>
+  </si>
+  <si>
+    <t>Most played: 1t7Gr 966 1007601</t>
+  </si>
+  <si>
+    <t>8U4Gp / rating: 3327 / attempts: 472 / deviation: 149</t>
+  </si>
+  <si>
+    <t>WaXIm / rating: 3282 / attempts: 929 / deviation: 125</t>
+  </si>
+  <si>
+    <t>eduB0 / rating: 3207 / attempts: 1034 / deviation: 154</t>
+  </si>
+  <si>
+    <t>Q727S / rating: 3203 / attempts: 412 / deviation: 128</t>
+  </si>
+  <si>
+    <t>DoYAX / rating: 3193 / attempts: 472 / deviation: 133</t>
+  </si>
+  <si>
+    <t>u8h0l / rating: 3192 / attempts: 417 / deviation: 132</t>
+  </si>
+  <si>
+    <t>9FKSf / rating: 3184 / attempts: 603 / deviation: 119</t>
+  </si>
+  <si>
+    <t>zhl5i / rating: 3182 / attempts: 6053 / deviation: 144</t>
+  </si>
+  <si>
+    <t>kzAw5 / rating: 3173 / attempts: 1224 / deviation: 134</t>
+  </si>
+  <si>
+    <t>sgHm8 / rating: 3166 / attempts: 930 / deviation: 151</t>
+  </si>
+  <si>
+    <t>DSvVX / rating: 3160 / attempts: 642 / deviation: 138</t>
   </si>
 </sst>
 </file>
@@ -2377,6 +2426,1671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzles Distribution by Rating (01/2024)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6712160294240194E-2"/>
+          <c:y val="1.8211380248498277E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of puzzles (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-11'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223790</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>219993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>194141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158657</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54417</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-410B-4091-8E68-F83F209D0D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="480464032"/>
+        <c:axId val="480462392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating deviation per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>95.831134564643804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.190447633326201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.813740112141005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.533157131011606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.155363964532299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.221104912470906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.191000358551406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.565845186971501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.349420615060396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.766952871974397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.827608272406707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.838992183556797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.570552750346295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.161432409213006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.109302002153001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.490917712071195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.004630577986703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.7526109783999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.873457059045606</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.609754078622601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.617179567474196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.020297930407096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.475439660400198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.842117196034295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101.909290953545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.95116332642201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110.10312500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118.557491289198</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-410B-4091-8E68-F83F209D0D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="192990400"/>
+        <c:axId val="192984496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480464032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480462392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480462392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480464032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192984496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192990400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="192990400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192984496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66456910069865327"/>
+          <c:y val="6.705434304545491E-3"/>
+          <c:w val="0.27633298090521341"/>
+          <c:h val="8.78054836125233E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lichess Puzzle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Attempts Distribution by Rating </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1725153208307963E-2"/>
+          <c:y val="1.56128024980484E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts (left axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-11'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>137388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8775134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21041251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35229563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37760650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87097467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142075951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204914834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338919018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>430033304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>592608070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>662462982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>651678146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>533633191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>403369892</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>324152572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340530469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253695471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166158956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121410425</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72600295</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37536341</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24878139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19585737</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18413663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2384887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>975729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>209646</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23417</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61CA-4D69-B871-B2A167A1609F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="133189912"/>
+        <c:axId val="133188600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023-11'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attempts per puzzle (right axis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2023-11'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-11'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>362.50131926121298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>375.889226815163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>397.23708206686899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365.14887023217199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>441.13424222245499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.72964795998598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>636.76923180351298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880.86538651672799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1327.23605775443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2169.4091794214601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2689.4310791614998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3012.2770540330298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2912.0074444791899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2425.6825944461798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2077.7161547535002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1897.54881839521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1835.6843929576401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1599.0184549058599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1206.4633324620199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>913.62971073385097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>688.93154363689803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>533.55044632704096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>457.17586416009698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>403.68812993383699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>450.211809290953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>549.38654687859901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>609.83062500000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>730.47386759581798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>867.29629629629596</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61CA-4D69-B871-B2A167A1609F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468796456"/>
+        <c:axId val="468794160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133189912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133188600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133188600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133189912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468794160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468796456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="468796456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="468794160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69729886223238491"/>
+          <c:y val="9.2111436890060881E-3"/>
+          <c:w val="0.23687830004855948"/>
+          <c:h val="8.7822628728785962E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8814,6 +10528,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9631,6 +11425,998 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14435,461 +17221,73 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="lichess_puzzles_distribution"/>
-      <sheetName val="2022-07"/>
-      <sheetName val="2023-01"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Number of puzzles (left axis)</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Attempts (left axis)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Attempts per puzzle (right axis)</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Rating deviation per puzzle (right axis)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>500</v>
-          </cell>
-          <cell r="B2">
-            <v>117</v>
-          </cell>
-          <cell r="C2">
-            <v>6115</v>
-          </cell>
-          <cell r="E2">
-            <v>52.264957264957197</v>
-          </cell>
-          <cell r="F2">
-            <v>127.93162393162299</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>600</v>
-          </cell>
-          <cell r="B3">
-            <v>94392</v>
-          </cell>
-          <cell r="C3">
-            <v>32293586</v>
-          </cell>
-          <cell r="E3">
-            <v>342.12206542927299</v>
-          </cell>
-          <cell r="F3">
-            <v>95.279843630816103</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>700</v>
-          </cell>
-          <cell r="B4">
-            <v>53306</v>
-          </cell>
-          <cell r="C4">
-            <v>19259447</v>
-          </cell>
-          <cell r="E4">
-            <v>361.29979739616499</v>
-          </cell>
-          <cell r="F4">
-            <v>92.630566915544193</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>800</v>
-          </cell>
-          <cell r="B5">
-            <v>111303</v>
-          </cell>
-          <cell r="C5">
-            <v>44366624</v>
-          </cell>
-          <cell r="E5">
-            <v>398.61121443267399</v>
-          </cell>
-          <cell r="F5">
-            <v>93.620315714760594</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>900</v>
-          </cell>
-          <cell r="B6">
-            <v>164482</v>
-          </cell>
-          <cell r="C6">
-            <v>75454172</v>
-          </cell>
-          <cell r="E6">
-            <v>458.73817195802502</v>
-          </cell>
-          <cell r="F6">
-            <v>93.326284943033201</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1000</v>
-          </cell>
-          <cell r="B7">
-            <v>212374</v>
-          </cell>
-          <cell r="C7">
-            <v>125473123</v>
-          </cell>
-          <cell r="E7">
-            <v>590.81207209922104</v>
-          </cell>
-          <cell r="F7">
-            <v>99.930871952310497</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1100</v>
-          </cell>
-          <cell r="B8">
-            <v>214730</v>
-          </cell>
-          <cell r="C8">
-            <v>189192740</v>
-          </cell>
-          <cell r="E8">
-            <v>881.07269594374304</v>
-          </cell>
-          <cell r="F8">
-            <v>98.817193685092903</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1200</v>
-          </cell>
-          <cell r="B9">
-            <v>199796</v>
-          </cell>
-          <cell r="C9">
-            <v>268609330</v>
-          </cell>
-          <cell r="E9">
-            <v>1344.4179563154401</v>
-          </cell>
-          <cell r="F9">
-            <v>101.79745340247</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1300</v>
-          </cell>
-          <cell r="B10">
-            <v>211648</v>
-          </cell>
-          <cell r="C10">
-            <v>368902192</v>
-          </cell>
-          <cell r="E10">
-            <v>1742.9987148472901</v>
-          </cell>
-          <cell r="F10">
-            <v>106.547371106743</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1400</v>
-          </cell>
-          <cell r="B11">
-            <v>220667</v>
-          </cell>
-          <cell r="C11">
-            <v>415115740</v>
-          </cell>
-          <cell r="E11">
-            <v>1881.18631240738</v>
-          </cell>
-          <cell r="F11">
-            <v>114.67426484249999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1500</v>
-          </cell>
-          <cell r="B12">
-            <v>224118</v>
-          </cell>
-          <cell r="C12">
-            <v>390864271</v>
-          </cell>
-          <cell r="E12">
-            <v>1744.01106113743</v>
-          </cell>
-          <cell r="F12">
-            <v>130.59297780633401</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1600</v>
-          </cell>
-          <cell r="B13">
-            <v>206753</v>
-          </cell>
-          <cell r="C13">
-            <v>322392558</v>
-          </cell>
-          <cell r="E13">
-            <v>1559.312600059</v>
-          </cell>
-          <cell r="F13">
-            <v>109.328087137792</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1700</v>
-          </cell>
-          <cell r="B14">
-            <v>184473</v>
-          </cell>
-          <cell r="C14">
-            <v>251562453</v>
-          </cell>
-          <cell r="E14">
-            <v>1363.68169325592</v>
-          </cell>
-          <cell r="F14">
-            <v>104.399548985488</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1800</v>
-          </cell>
-          <cell r="B15">
-            <v>170830</v>
-          </cell>
-          <cell r="C15">
-            <v>219745473</v>
-          </cell>
-          <cell r="E15">
-            <v>1286.3400632207399</v>
-          </cell>
-          <cell r="F15">
-            <v>101.09685652402899</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1900</v>
-          </cell>
-          <cell r="B16">
-            <v>158306</v>
-          </cell>
-          <cell r="C16">
-            <v>203068385</v>
-          </cell>
-          <cell r="E16">
-            <v>1282.7586130658301</v>
-          </cell>
-          <cell r="F16">
-            <v>95.463520018192597</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2000</v>
-          </cell>
-          <cell r="B17">
-            <v>139858</v>
-          </cell>
-          <cell r="C17">
-            <v>164514358</v>
-          </cell>
-          <cell r="E17">
-            <v>1176.2956570235499</v>
-          </cell>
-          <cell r="F17">
-            <v>92.858170430007505</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2100</v>
-          </cell>
-          <cell r="B18">
-            <v>127382</v>
-          </cell>
-          <cell r="C18">
-            <v>111106432</v>
-          </cell>
-          <cell r="E18">
-            <v>872.23023661113803</v>
-          </cell>
-          <cell r="F18">
-            <v>92.394906658711506</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2200</v>
-          </cell>
-          <cell r="B19">
-            <v>109262</v>
-          </cell>
-          <cell r="C19">
-            <v>76930811</v>
-          </cell>
-          <cell r="E19">
-            <v>704.094845417437</v>
-          </cell>
-          <cell r="F19">
-            <v>91.074811004740894</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2300</v>
-          </cell>
-          <cell r="B20">
-            <v>84510</v>
-          </cell>
-          <cell r="C20">
-            <v>46837563</v>
-          </cell>
-          <cell r="E20">
-            <v>554.22509762158302</v>
-          </cell>
-          <cell r="F20">
-            <v>88.797893740385703</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2400</v>
-          </cell>
-          <cell r="B21">
-            <v>61094</v>
-          </cell>
-          <cell r="C21">
-            <v>26667156</v>
-          </cell>
-          <cell r="E21">
-            <v>436.49386191769997</v>
-          </cell>
-          <cell r="F21">
-            <v>88.785265328837497</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2500</v>
-          </cell>
-          <cell r="B22">
-            <v>44610</v>
-          </cell>
-          <cell r="C22">
-            <v>16902602</v>
-          </cell>
-          <cell r="E22">
-            <v>378.897153104685</v>
-          </cell>
-          <cell r="F22">
-            <v>90.393140551445796</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2600</v>
-          </cell>
-          <cell r="B23">
-            <v>36256</v>
-          </cell>
-          <cell r="C23">
-            <v>12710297</v>
-          </cell>
-          <cell r="E23">
-            <v>350.57085723742199</v>
-          </cell>
-          <cell r="F23">
-            <v>93.830345322153505</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2700</v>
-          </cell>
-          <cell r="B24">
-            <v>26700</v>
-          </cell>
-          <cell r="C24">
-            <v>10418393</v>
-          </cell>
-          <cell r="E24">
-            <v>390.20198501872602</v>
-          </cell>
-          <cell r="F24">
-            <v>99.7003370786516</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2800</v>
-          </cell>
-          <cell r="B25">
-            <v>295</v>
-          </cell>
-          <cell r="C25">
-            <v>121821</v>
-          </cell>
-          <cell r="E25">
-            <v>412.952542372881</v>
-          </cell>
-          <cell r="F25">
-            <v>101.752542372881</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2900</v>
-          </cell>
-          <cell r="B26">
-            <v>25</v>
-          </cell>
-          <cell r="C26">
-            <v>11603</v>
-          </cell>
-          <cell r="E26">
-            <v>464.12</v>
-          </cell>
-          <cell r="F26">
-            <v>112.36</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>315912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>103821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18046,8 +20444,778 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>379</v>
+      </c>
+      <c r="C2">
+        <v>137388</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36320</v>
+      </c>
+      <c r="E2" s="1">
+        <v>362.50131926121298</v>
+      </c>
+      <c r="F2" s="1">
+        <v>95.831134564643804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <v>23345</v>
+      </c>
+      <c r="C3">
+        <v>8775134</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2245566</v>
+      </c>
+      <c r="E3" s="1">
+        <v>375.889226815163</v>
+      </c>
+      <c r="F3" s="1">
+        <v>96.190447633326201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>52969</v>
+      </c>
+      <c r="C4">
+        <v>21041251</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4969220</v>
+      </c>
+      <c r="E4" s="1">
+        <v>397.23708206686899</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93.813740112141005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>600</v>
+      </c>
+      <c r="B5">
+        <v>96480</v>
+      </c>
+      <c r="C5">
+        <v>35229563</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8927599</v>
+      </c>
+      <c r="E5" s="1">
+        <v>365.14887023217199</v>
+      </c>
+      <c r="F5" s="1">
+        <v>92.533157131011606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>700</v>
+      </c>
+      <c r="B6">
+        <v>85599</v>
+      </c>
+      <c r="C6">
+        <v>37760650</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7546011</v>
+      </c>
+      <c r="E6" s="1">
+        <v>441.13424222245499</v>
+      </c>
+      <c r="F6" s="1">
+        <v>88.155363964532299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>800</v>
+      </c>
+      <c r="B7">
+        <v>171543</v>
+      </c>
+      <c r="C7">
+        <v>87097467</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15305256</v>
+      </c>
+      <c r="E7" s="1">
+        <v>507.72964795998598</v>
+      </c>
+      <c r="F7" s="1">
+        <v>89.221104912470906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>900</v>
+      </c>
+      <c r="B8">
+        <v>223120</v>
+      </c>
+      <c r="C8">
+        <v>142075951</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19677176</v>
+      </c>
+      <c r="E8" s="1">
+        <v>636.76923180351298</v>
+      </c>
+      <c r="F8" s="1">
+        <v>88.191000358551406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>232629</v>
+      </c>
+      <c r="C9">
+        <v>204914834</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21068242</v>
+      </c>
+      <c r="E9" s="1">
+        <v>880.86538651672799</v>
+      </c>
+      <c r="F9" s="1">
+        <v>90.565845186971501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1100</v>
+      </c>
+      <c r="B10">
+        <v>255357</v>
+      </c>
+      <c r="C10">
+        <v>338919018</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22560643</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1327.23605775443</v>
+      </c>
+      <c r="F10" s="1">
+        <v>88.349420615060396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1200</v>
+      </c>
+      <c r="B11">
+        <v>198226</v>
+      </c>
+      <c r="C11">
+        <v>430033304</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17794144</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2169.4091794214601</v>
+      </c>
+      <c r="F11" s="1">
+        <v>89.766952871974397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1300</v>
+      </c>
+      <c r="B12">
+        <v>220347</v>
+      </c>
+      <c r="C12">
+        <v>592608070</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19352550</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2689.4310791614998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>87.827608272406707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1400</v>
+      </c>
+      <c r="B13">
+        <v>219921</v>
+      </c>
+      <c r="C13">
+        <v>662462982</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19317639</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3012.2770540330298</v>
+      </c>
+      <c r="F13" s="1">
+        <v>87.838992183556797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1500</v>
+      </c>
+      <c r="B14">
+        <v>223790</v>
+      </c>
+      <c r="C14">
+        <v>651678146</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19597414</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2912.0074444791899</v>
+      </c>
+      <c r="F14" s="1">
+        <v>87.570552750346295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1600</v>
+      </c>
+      <c r="B15">
+        <v>219993</v>
+      </c>
+      <c r="C15">
+        <v>533633191</v>
+      </c>
+      <c r="D15" s="1">
+        <v>19174905</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2425.6825944461798</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.161432409213006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1700</v>
+      </c>
+      <c r="B16">
+        <v>194141</v>
+      </c>
+      <c r="C16">
+        <v>403369892</v>
+      </c>
+      <c r="D16" s="1">
+        <v>16911487</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2077.7161547535002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>87.109302002153001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1800</v>
+      </c>
+      <c r="B17">
+        <v>170827</v>
+      </c>
+      <c r="C17">
+        <v>324152572</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14604157</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1897.54881839521</v>
+      </c>
+      <c r="F17" s="1">
+        <v>85.490917712071195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1900</v>
+      </c>
+      <c r="B18">
+        <v>185506</v>
+      </c>
+      <c r="C18">
+        <v>340530469</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15583363</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1835.6843929576401</v>
+      </c>
+      <c r="F18" s="1">
+        <v>84.004630577986703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19">
+        <v>158657</v>
+      </c>
+      <c r="C19">
+        <v>253695471</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13446595</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1599.0184549058599</v>
+      </c>
+      <c r="F19" s="1">
+        <v>84.7526109783999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2100</v>
+      </c>
+      <c r="B20">
+        <v>137724</v>
+      </c>
+      <c r="C20">
+        <v>166158956</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11826836</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1206.4633324620199</v>
+      </c>
+      <c r="F20" s="1">
+        <v>85.873457059045606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2200</v>
+      </c>
+      <c r="B21">
+        <v>132888</v>
+      </c>
+      <c r="C21">
+        <v>121410425</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11376509</v>
+      </c>
+      <c r="E21" s="1">
+        <v>913.62971073385097</v>
+      </c>
+      <c r="F21" s="1">
+        <v>85.609754078622601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2300</v>
+      </c>
+      <c r="B22">
+        <v>105381</v>
+      </c>
+      <c r="C22">
+        <v>72600295</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9233186</v>
+      </c>
+      <c r="E22" s="1">
+        <v>688.93154363689803</v>
+      </c>
+      <c r="F22" s="1">
+        <v>87.617179567474196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2400</v>
+      </c>
+      <c r="B23">
+        <v>70352</v>
+      </c>
+      <c r="C23">
+        <v>37536341</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6262756</v>
+      </c>
+      <c r="E23" s="1">
+        <v>533.55044632704096</v>
+      </c>
+      <c r="F23" s="1">
+        <v>89.020297930407096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2500</v>
+      </c>
+      <c r="B24">
+        <v>54417</v>
+      </c>
+      <c r="C24">
+        <v>24878139</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4977819</v>
+      </c>
+      <c r="E24" s="1">
+        <v>457.17586416009698</v>
+      </c>
+      <c r="F24" s="1">
+        <v>91.475439660400198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2600</v>
+      </c>
+      <c r="B25">
+        <v>48517</v>
+      </c>
+      <c r="C25">
+        <v>19585737</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4649972</v>
+      </c>
+      <c r="E25" s="1">
+        <v>403.68812993383699</v>
+      </c>
+      <c r="F25" s="1">
+        <v>95.842117196034295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2700</v>
+      </c>
+      <c r="B26">
+        <v>40900</v>
+      </c>
+      <c r="C26">
+        <v>18413663</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4168090</v>
+      </c>
+      <c r="E26" s="1">
+        <v>450.211809290953</v>
+      </c>
+      <c r="F26" s="1">
+        <v>101.909290953545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2800</v>
+      </c>
+      <c r="B27">
+        <v>4341</v>
+      </c>
+      <c r="C27">
+        <v>2384887</v>
+      </c>
+      <c r="D27" s="1">
+        <v>459934</v>
+      </c>
+      <c r="E27" s="1">
+        <v>549.38654687859901</v>
+      </c>
+      <c r="F27" s="1">
+        <v>105.95116332642201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2900</v>
+      </c>
+      <c r="B28">
+        <v>1600</v>
+      </c>
+      <c r="C28">
+        <v>975729</v>
+      </c>
+      <c r="D28" s="1">
+        <v>176165</v>
+      </c>
+      <c r="E28" s="1">
+        <v>609.83062500000005</v>
+      </c>
+      <c r="F28" s="1">
+        <v>110.10312500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <v>287</v>
+      </c>
+      <c r="C29">
+        <v>209646</v>
+      </c>
+      <c r="D29" s="1">
+        <v>34026</v>
+      </c>
+      <c r="E29" s="1">
+        <v>730.47386759581798</v>
+      </c>
+      <c r="F29" s="1">
+        <v>118.557491289198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3100</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>23417</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3525</v>
+      </c>
+      <c r="E30" s="1">
+        <v>867.29629629629596</v>
+      </c>
+      <c r="F30" s="1">
+        <v>130.555555555555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3200</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>382</v>
+      </c>
+      <c r="D31" s="1">
+        <v>133</v>
+      </c>
+      <c r="E31" s="1">
+        <v>382</v>
+      </c>
+      <c r="F31" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3300</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>466</v>
+      </c>
+      <c r="D32" s="1">
+        <v>149</v>
+      </c>
+      <c r="E32" s="1">
+        <v>466</v>
+      </c>
+      <c r="F32" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>SUM(B2:B32)</f>
+        <v>3529265</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C2:C32)</f>
+        <v>5532293436</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33" si="0">C33/B33</f>
+        <v>1567.5483240844765</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18084,19 +21252,19 @@
         <v>300</v>
       </c>
       <c r="B2">
-        <v>379</v>
+        <v>810</v>
       </c>
       <c r="C2">
-        <v>137388</v>
+        <v>315977</v>
       </c>
       <c r="D2" s="1">
-        <v>36320</v>
+        <v>80061</v>
       </c>
       <c r="E2" s="1">
-        <v>362.50131926121298</v>
+        <v>390.09506172839502</v>
       </c>
       <c r="F2" s="1">
-        <v>95.831134564643804</v>
+        <v>98.840740740740699</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18104,19 +21272,19 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <v>23345</v>
+        <v>28027</v>
       </c>
       <c r="C3">
-        <v>8775134</v>
+        <v>11099377</v>
       </c>
       <c r="D3" s="1">
-        <v>2245566</v>
+        <v>2705020</v>
       </c>
       <c r="E3" s="1">
-        <v>375.889226815163</v>
+        <v>396.02444071787897</v>
       </c>
       <c r="F3" s="1">
-        <v>96.190447633326201</v>
+        <v>96.514789310307904</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -18124,19 +21292,19 @@
         <v>500</v>
       </c>
       <c r="B4">
-        <v>52969</v>
+        <v>56229</v>
       </c>
       <c r="C4">
-        <v>21041251</v>
+        <v>22276595</v>
       </c>
       <c r="D4" s="1">
-        <v>4969220</v>
+        <v>5281768</v>
       </c>
       <c r="E4" s="1">
-        <v>397.23708206686899</v>
+        <v>396.176261359796</v>
       </c>
       <c r="F4" s="1">
-        <v>93.813740112141005</v>
+        <v>93.933166159810696</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -18144,19 +21312,19 @@
         <v>600</v>
       </c>
       <c r="B5">
-        <v>96480</v>
+        <v>93920</v>
       </c>
       <c r="C5">
-        <v>35229563</v>
+        <v>34019945</v>
       </c>
       <c r="D5" s="1">
-        <v>8927599</v>
+        <v>8716647</v>
       </c>
       <c r="E5" s="1">
-        <v>365.14887023217199</v>
+        <v>362.222583049403</v>
       </c>
       <c r="F5" s="1">
-        <v>92.533157131011606</v>
+        <v>92.809273850085106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -18164,19 +21332,19 @@
         <v>700</v>
       </c>
       <c r="B6">
-        <v>85599</v>
+        <v>88085</v>
       </c>
       <c r="C6">
-        <v>37760650</v>
+        <v>38443351</v>
       </c>
       <c r="D6" s="1">
-        <v>7546011</v>
+        <v>7838646</v>
       </c>
       <c r="E6" s="1">
-        <v>441.13424222245499</v>
+        <v>436.434705114378</v>
       </c>
       <c r="F6" s="1">
-        <v>88.155363964532299</v>
+        <v>88.989566895612199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18184,19 +21352,19 @@
         <v>800</v>
       </c>
       <c r="B7">
-        <v>171543</v>
+        <v>178067</v>
       </c>
       <c r="C7">
-        <v>87097467</v>
+        <v>90746890</v>
       </c>
       <c r="D7" s="1">
-        <v>15305256</v>
+        <v>15888778</v>
       </c>
       <c r="E7" s="1">
-        <v>507.72964795998598</v>
+        <v>509.62216469081801</v>
       </c>
       <c r="F7" s="1">
-        <v>89.221104912470906</v>
+        <v>89.229211476578996</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -18204,19 +21372,19 @@
         <v>900</v>
       </c>
       <c r="B8">
-        <v>223120</v>
+        <v>226676</v>
       </c>
       <c r="C8">
-        <v>142075951</v>
+        <v>143037665</v>
       </c>
       <c r="D8" s="1">
-        <v>19677176</v>
+        <v>20026415</v>
       </c>
       <c r="E8" s="1">
-        <v>636.76923180351298</v>
+        <v>631.02253877781504</v>
       </c>
       <c r="F8" s="1">
-        <v>88.191000358551406</v>
+        <v>88.3481930155817</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -18224,19 +21392,19 @@
         <v>1000</v>
       </c>
       <c r="B9">
-        <v>232629</v>
+        <v>241297</v>
       </c>
       <c r="C9">
-        <v>204914834</v>
+        <v>213623337</v>
       </c>
       <c r="D9" s="1">
-        <v>21068242</v>
+        <v>21813004</v>
       </c>
       <c r="E9" s="1">
-        <v>880.86538651672799</v>
+        <v>885.31285925643499</v>
       </c>
       <c r="F9" s="1">
-        <v>90.565845186971501</v>
+        <v>90.398985482621001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -18244,19 +21412,19 @@
         <v>1100</v>
       </c>
       <c r="B10">
-        <v>255357</v>
+        <v>255814</v>
       </c>
       <c r="C10">
-        <v>338919018</v>
+        <v>341562276</v>
       </c>
       <c r="D10" s="1">
-        <v>22560643</v>
+        <v>22634511</v>
       </c>
       <c r="E10" s="1">
-        <v>1327.23605775443</v>
+        <v>1335.1977452367701</v>
       </c>
       <c r="F10" s="1">
-        <v>88.349420615060396</v>
+        <v>88.480345094482701</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18264,19 +21432,19 @@
         <v>1200</v>
       </c>
       <c r="B11">
-        <v>198226</v>
+        <v>205265</v>
       </c>
       <c r="C11">
-        <v>430033304</v>
+        <v>438037146</v>
       </c>
       <c r="D11" s="1">
-        <v>17794144</v>
+        <v>18379885</v>
       </c>
       <c r="E11" s="1">
-        <v>2169.4091794214601</v>
+        <v>2134.0079701848799</v>
       </c>
       <c r="F11" s="1">
-        <v>89.766952871974397</v>
+        <v>89.5422259031008</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -18284,19 +21452,19 @@
         <v>1300</v>
       </c>
       <c r="B12">
-        <v>220347</v>
+        <v>224543</v>
       </c>
       <c r="C12">
-        <v>592608070</v>
+        <v>610825686</v>
       </c>
       <c r="D12" s="1">
-        <v>19352550</v>
+        <v>19677242</v>
       </c>
       <c r="E12" s="1">
-        <v>2689.4310791614998</v>
+        <v>2720.3060705521798</v>
       </c>
       <c r="F12" s="1">
-        <v>87.827608272406707</v>
+        <v>87.632400030283705</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -18304,19 +21472,19 @@
         <v>1400</v>
       </c>
       <c r="B13">
-        <v>219921</v>
+        <v>222786</v>
       </c>
       <c r="C13">
-        <v>662462982</v>
+        <v>693266977</v>
       </c>
       <c r="D13" s="1">
-        <v>19317639</v>
+        <v>19515814</v>
       </c>
       <c r="E13" s="1">
-        <v>3012.2770540330298</v>
+        <v>3111.8067427935298</v>
       </c>
       <c r="F13" s="1">
-        <v>87.838992183556797</v>
+        <v>87.598924528471201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -18324,19 +21492,19 @@
         <v>1500</v>
       </c>
       <c r="B14">
-        <v>223790</v>
+        <v>228786</v>
       </c>
       <c r="C14">
-        <v>651678146</v>
+        <v>677708233</v>
       </c>
       <c r="D14" s="1">
-        <v>19597414</v>
+        <v>19990391</v>
       </c>
       <c r="E14" s="1">
-        <v>2912.0074444791899</v>
+        <v>2962.19276092068</v>
       </c>
       <c r="F14" s="1">
-        <v>87.570552750346295</v>
+        <v>87.3759364646438</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -18344,19 +21512,19 @@
         <v>1600</v>
       </c>
       <c r="B15">
-        <v>219993</v>
+        <v>222715</v>
       </c>
       <c r="C15">
-        <v>533633191</v>
+        <v>547147052</v>
       </c>
       <c r="D15" s="1">
-        <v>19174905</v>
+        <v>19382682</v>
       </c>
       <c r="E15" s="1">
-        <v>2425.6825944461798</v>
+        <v>2456.7139707698102</v>
       </c>
       <c r="F15" s="1">
-        <v>87.161432409213006</v>
+        <v>87.029082010641403</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -18364,19 +21532,19 @@
         <v>1700</v>
       </c>
       <c r="B16">
-        <v>194141</v>
+        <v>195385</v>
       </c>
       <c r="C16">
-        <v>403369892</v>
+        <v>406290788</v>
       </c>
       <c r="D16" s="1">
-        <v>16911487</v>
+        <v>16961878</v>
       </c>
       <c r="E16" s="1">
-        <v>2077.7161547535002</v>
+        <v>2079.4369475650601</v>
       </c>
       <c r="F16" s="1">
-        <v>87.109302002153001</v>
+        <v>86.812590526396605</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -18384,19 +21552,19 @@
         <v>1800</v>
       </c>
       <c r="B17">
-        <v>170827</v>
+        <v>180061</v>
       </c>
       <c r="C17">
-        <v>324152572</v>
+        <v>349186741</v>
       </c>
       <c r="D17" s="1">
-        <v>14604157</v>
+        <v>15314657</v>
       </c>
       <c r="E17" s="1">
-        <v>1897.54881839521</v>
+        <v>1939.2691421240499</v>
       </c>
       <c r="F17" s="1">
-        <v>85.490917712071195</v>
+        <v>85.052604395177099</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -18404,19 +21572,19 @@
         <v>1900</v>
       </c>
       <c r="B18">
-        <v>185506</v>
+        <v>183883</v>
       </c>
       <c r="C18">
-        <v>340530469</v>
+        <v>340617114</v>
       </c>
       <c r="D18" s="1">
-        <v>15583363</v>
+        <v>15474013</v>
       </c>
       <c r="E18" s="1">
-        <v>1835.6843929576401</v>
+        <v>1852.3578253563401</v>
       </c>
       <c r="F18" s="1">
-        <v>84.004630577986703</v>
+        <v>84.151406057112396</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -18424,19 +21592,19 @@
         <v>2000</v>
       </c>
       <c r="B19">
-        <v>158657</v>
+        <v>161202</v>
       </c>
       <c r="C19">
-        <v>253695471</v>
+        <v>266382064</v>
       </c>
       <c r="D19" s="1">
-        <v>13446595</v>
+        <v>13641498</v>
       </c>
       <c r="E19" s="1">
-        <v>1599.0184549058599</v>
+        <v>1652.4736913934</v>
       </c>
       <c r="F19" s="1">
-        <v>84.7526109783999</v>
+        <v>84.623627498418102</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -18444,19 +21612,19 @@
         <v>2100</v>
       </c>
       <c r="B20">
-        <v>137724</v>
+        <v>139108</v>
       </c>
       <c r="C20">
-        <v>166158956</v>
+        <v>165420376</v>
       </c>
       <c r="D20" s="1">
-        <v>11826836</v>
+        <v>11944779</v>
       </c>
       <c r="E20" s="1">
-        <v>1206.4633324620199</v>
+        <v>1189.1507030508601</v>
       </c>
       <c r="F20" s="1">
-        <v>85.873457059045606</v>
+        <v>85.866945107398493</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -18464,19 +21632,19 @@
         <v>2200</v>
       </c>
       <c r="B21">
-        <v>132888</v>
+        <v>137001</v>
       </c>
       <c r="C21">
-        <v>121410425</v>
+        <v>128278719</v>
       </c>
       <c r="D21" s="1">
-        <v>11376509</v>
+        <v>11707829</v>
       </c>
       <c r="E21" s="1">
-        <v>913.62971073385097</v>
+        <v>936.33418004248097</v>
       </c>
       <c r="F21" s="1">
-        <v>85.609754078622601</v>
+        <v>85.457982058525104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -18484,19 +21652,19 @@
         <v>2300</v>
       </c>
       <c r="B22">
-        <v>105381</v>
+        <v>106750</v>
       </c>
       <c r="C22">
-        <v>72600295</v>
+        <v>75252614</v>
       </c>
       <c r="D22" s="1">
-        <v>9233186</v>
+        <v>9347986</v>
       </c>
       <c r="E22" s="1">
-        <v>688.93154363689803</v>
+        <v>704.94251990632301</v>
       </c>
       <c r="F22" s="1">
-        <v>87.617179567474196</v>
+        <v>87.568955503512797</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -18504,19 +21672,19 @@
         <v>2400</v>
       </c>
       <c r="B23">
-        <v>70352</v>
+        <v>71646</v>
       </c>
       <c r="C23">
-        <v>37536341</v>
+        <v>38824186</v>
       </c>
       <c r="D23" s="1">
-        <v>6262756</v>
+        <v>6384581</v>
       </c>
       <c r="E23" s="1">
-        <v>533.55044632704096</v>
+        <v>541.88909359908405</v>
       </c>
       <c r="F23" s="1">
-        <v>89.020297930407096</v>
+        <v>89.112874410295007</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18524,19 +21692,19 @@
         <v>2500</v>
       </c>
       <c r="B24">
-        <v>54417</v>
+        <v>55230</v>
       </c>
       <c r="C24">
-        <v>24878139</v>
+        <v>25433733</v>
       </c>
       <c r="D24" s="1">
-        <v>4977819</v>
+        <v>5057766</v>
       </c>
       <c r="E24" s="1">
-        <v>457.17586416009698</v>
+        <v>460.50575774035798</v>
       </c>
       <c r="F24" s="1">
-        <v>91.475439660400198</v>
+        <v>91.576425855513307</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18544,19 +21712,19 @@
         <v>2600</v>
       </c>
       <c r="B25">
-        <v>48517</v>
+        <v>49264</v>
       </c>
       <c r="C25">
-        <v>19585737</v>
+        <v>20198385</v>
       </c>
       <c r="D25" s="1">
-        <v>4649972</v>
+        <v>4734182</v>
       </c>
       <c r="E25" s="1">
-        <v>403.68812993383699</v>
+        <v>410.00294332575498</v>
       </c>
       <c r="F25" s="1">
-        <v>95.842117196034295</v>
+        <v>96.098205586229298</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -18564,19 +21732,19 @@
         <v>2700</v>
       </c>
       <c r="B26">
-        <v>40900</v>
+        <v>41268</v>
       </c>
       <c r="C26">
-        <v>18413663</v>
+        <v>18810757</v>
       </c>
       <c r="D26" s="1">
-        <v>4168090</v>
+        <v>4211493</v>
       </c>
       <c r="E26" s="1">
-        <v>450.211809290953</v>
+        <v>455.81944848308598</v>
       </c>
       <c r="F26" s="1">
-        <v>101.909290953545</v>
+        <v>102.052268101192</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -18584,19 +21752,19 @@
         <v>2800</v>
       </c>
       <c r="B27">
-        <v>4341</v>
+        <v>5156</v>
       </c>
       <c r="C27">
-        <v>2384887</v>
+        <v>2916234</v>
       </c>
       <c r="D27" s="1">
-        <v>459934</v>
+        <v>545690</v>
       </c>
       <c r="E27" s="1">
-        <v>549.38654687859901</v>
+        <v>565.60007757951905</v>
       </c>
       <c r="F27" s="1">
-        <v>105.95116332642201</v>
+        <v>105.8359193173</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -18604,19 +21772,19 @@
         <v>2900</v>
       </c>
       <c r="B28">
-        <v>1600</v>
+        <v>1944</v>
       </c>
       <c r="C28">
-        <v>975729</v>
+        <v>1250091</v>
       </c>
       <c r="D28" s="1">
-        <v>176165</v>
+        <v>213804</v>
       </c>
       <c r="E28" s="1">
-        <v>609.83062500000005</v>
+        <v>643.05092592592598</v>
       </c>
       <c r="F28" s="1">
-        <v>110.10312500000001</v>
+        <v>109.981481481481</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -18624,19 +21792,19 @@
         <v>3000</v>
       </c>
       <c r="B29">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C29">
-        <v>209646</v>
+        <v>229789</v>
       </c>
       <c r="D29" s="1">
-        <v>34026</v>
+        <v>38298</v>
       </c>
       <c r="E29" s="1">
-        <v>730.47386759581798</v>
+        <v>704.87423312883402</v>
       </c>
       <c r="F29" s="1">
-        <v>118.557491289198</v>
+        <v>117.478527607361</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -18644,19 +21812,19 @@
         <v>3100</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>23417</v>
+        <v>35992</v>
       </c>
       <c r="D30" s="1">
-        <v>3525</v>
+        <v>4978</v>
       </c>
       <c r="E30" s="1">
-        <v>867.29629629629596</v>
+        <v>922.87179487179401</v>
       </c>
       <c r="F30" s="1">
-        <v>130.555555555555</v>
+        <v>127.641025641025</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -18664,19 +21832,19 @@
         <v>3200</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>382</v>
+        <v>2375</v>
       </c>
       <c r="D31" s="1">
-        <v>133</v>
+        <v>407</v>
       </c>
       <c r="E31" s="1">
-        <v>382</v>
+        <v>791.66666666666595</v>
       </c>
       <c r="F31" s="1">
-        <v>133</v>
+        <v>135.666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -18687,13 +21855,13 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D32" s="1">
         <v>149</v>
       </c>
       <c r="E32" s="1">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F32" s="1">
         <v>149</v>
@@ -18702,45 +21870,45 @@
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>SUM(B2:B32)</f>
-        <v>3529265</v>
+        <v>3601287</v>
       </c>
       <c r="C33">
         <f>SUM(C2:C32)</f>
-        <v>5532293436</v>
+        <v>5701240937</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ref="D33" si="0">C33/B33</f>
-        <v>1567.5483240844765</v>
+        <v>1583.1120754885683</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -18755,57 +21923,57 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
